--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentation\SBS (guru.qahacking.ru)\Manual_testing_(Doc-on)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C677999-F424-4211-8332-9A781F674DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD4582-6D30-4828-9E08-AB452A515FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="395">
   <si>
     <t>SOB-1</t>
   </si>
@@ -1625,25 +1625,408 @@
       <t xml:space="preserve"> ///</t>
     </r>
   </si>
+  <si>
+    <t>Чек лист магазина</t>
+  </si>
+  <si>
+    <t>Наличие кнопоки "Купить"</t>
+  </si>
+  <si>
+    <t>Класс эквивалентности</t>
+  </si>
+  <si>
+    <t>Наличие кнопоки "Заказать"</t>
+  </si>
+  <si>
+    <t>Добавление товар в корзину</t>
+  </si>
+  <si>
+    <t>Удаление товар из корзины</t>
+  </si>
+  <si>
+    <t>После заказа приходит письмо на почту.</t>
+  </si>
+  <si>
+    <t>Есть фильтры для поиска товаров.</t>
+  </si>
+  <si>
+    <t>Есть форма обратной связи.</t>
+  </si>
+  <si>
+    <t>Есть раздел с контактами.</t>
+  </si>
+  <si>
+    <t>Есть ссылки на социальные сети.</t>
+  </si>
+  <si>
+    <t>Присутствуют хлебные крошки.</t>
+  </si>
+  <si>
+    <t>Отсутствуют опечатки.</t>
+  </si>
+  <si>
+    <t>Проверка возможностей личного кабинета.</t>
+  </si>
+  <si>
+    <t>Отсутствует личный кабинет</t>
+  </si>
+  <si>
+    <t>Строка поиска находится на видном месте.</t>
+  </si>
+  <si>
+    <t>Отсутствует строка поиска</t>
+  </si>
+  <si>
+    <t>Нет дублирующихся товаров.</t>
+  </si>
+  <si>
+    <t>Легко найти нужный товар.</t>
+  </si>
+  <si>
+    <t>Проверка корзины</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>добавить товар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>удалить товар</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>оформить заказ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>оплата</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сортировка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>добавление в избранное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>поиск товара</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>фильтры</t>
+    </r>
+  </si>
+  <si>
+    <t>Каталог товаров</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>редактирование профиля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>удаление профиля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>бонусная система</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>авторизация</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>История заказов</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1770,13 +2153,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
@@ -1853,6 +2229,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1904,7 +2302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2058,63 +2456,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2124,96 +2521,96 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2223,28 +2620,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2254,53 +2651,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2317,28 +2714,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2347,16 +2744,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2365,13 +2762,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2380,25 +2777,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2410,22 +2807,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2438,58 +2835,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2501,19 +2901,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2522,8 +2922,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2835,995 +3277,995 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="145" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="53" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="77" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="75">
         <v>45244</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="148" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="82">
         <v>45244</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="53" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65" t="s">
+      <c r="J10" s="58"/>
+      <c r="K10" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="60">
         <v>45244</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="53" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65" t="s">
+      <c r="J11" s="58"/>
+      <c r="K11" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="60">
         <v>45244</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="53" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="60">
         <v>45244</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="77" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="99" t="s">
+      <c r="K13" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="100">
+      <c r="L13" s="94">
         <v>45244</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="145" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="58" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="53" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="56" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="58" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="58" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="53" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="58" t="s">
+      <c r="J18" s="62"/>
+      <c r="K18" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="53" t="s">
+      <c r="D19" s="57"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="58" t="s">
+      <c r="J19" s="64"/>
+      <c r="K19" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="53" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="58" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="58" t="s">
+      <c r="J21" s="64"/>
+      <c r="K21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
     </row>
     <row r="23" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="67" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="77" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="98" t="s">
+      <c r="I23" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
     </row>
     <row r="25" spans="1:12" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="53">
         <v>45244</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
     </row>
     <row r="27" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="35" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="35" t="s">
+      <c r="J28" s="51"/>
+      <c r="K28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="56" t="s">
+      <c r="H29" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="35" t="s">
+      <c r="J29" s="48"/>
+      <c r="K29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="53" t="s">
+      <c r="D30" s="51"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="35" t="s">
+      <c r="J30" s="48"/>
+      <c r="K30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="93" t="s">
+      <c r="D32" s="86"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="95"/>
-      <c r="K32" s="73" t="s">
+      <c r="J32" s="89"/>
+      <c r="K32" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="81">
+      <c r="L32" s="75">
         <v>45245</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
     </row>
     <row r="34" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="110" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="56" t="s">
+      <c r="G34" s="48"/>
+      <c r="H34" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="35" t="s">
+      <c r="J34" s="48"/>
+      <c r="K34" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="56">
         <v>45244</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="110" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="56" t="s">
+      <c r="G35" s="48"/>
+      <c r="H35" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="35" t="s">
+      <c r="J35" s="48"/>
+      <c r="K35" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="62">
+      <c r="L35" s="56">
         <v>45244</v>
       </c>
     </row>
@@ -3831,20 +4273,20 @@
       <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="C38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="C39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3857,7 +4299,7 @@
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3888,710 +4330,710 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="150" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="114" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="98" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="150" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="142" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="114" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="151" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="153"/>
     </row>
     <row r="10" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="133" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="58" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="77" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="124" t="s">
+      <c r="J11" s="120"/>
+      <c r="K11" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="71" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="71" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="82" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="130" t="s">
+      <c r="G13" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="58" t="s">
+      <c r="J13" s="121"/>
+      <c r="K13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="53" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="129" t="s">
+      <c r="J14" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="53" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="58" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="53" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="58" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58" t="s">
+      <c r="J17" s="51"/>
+      <c r="K17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="77" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="124" t="s">
+      <c r="J18" s="89"/>
+      <c r="K18" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="154" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
     </row>
     <row r="20" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="115" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="121" t="s">
+      <c r="I20" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="169" t="s">
+      <c r="J20" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="53" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="G21" s="114" t="s">
+      <c r="G21" s="108" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="58" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="56" t="s">
+      <c r="G22" s="108"/>
+      <c r="H22" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="58" t="s">
+      <c r="J22" s="66"/>
+      <c r="K22" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="71" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="132" t="s">
+      <c r="G23" s="126" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="58" t="s">
+      <c r="J23" s="66"/>
+      <c r="K23" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="71" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="132" t="s">
+      <c r="G24" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="65" t="s">
         <v>344</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58" t="s">
+      <c r="J24" s="51"/>
+      <c r="K24" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="71" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="G25" s="132" t="s">
+      <c r="G25" s="126" t="s">
         <v>343</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58" t="s">
+      <c r="J25" s="51"/>
+      <c r="K25" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4604,345 +5046,345 @@
     <row r="35" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="152" t="s">
+      <c r="A38" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="154"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
     </row>
     <row r="39" spans="1:12" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="114" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="114" t="s">
+      <c r="G39" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="56" t="s">
+      <c r="H39" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="35" t="s">
+      <c r="J39" s="48"/>
+      <c r="K39" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="59">
+      <c r="L39" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="G40" s="72" t="s">
+      <c r="G40" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="57"/>
-      <c r="K40" s="35" t="s">
+      <c r="J40" s="51"/>
+      <c r="K40" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="59">
+      <c r="L40" s="53">
         <v>45274</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="71" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="134" t="s">
+      <c r="D41" s="70"/>
+      <c r="E41" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="134" t="s">
+      <c r="G41" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="I41" s="98" t="s">
+      <c r="I41" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="76"/>
-      <c r="K41" s="73" t="s">
+      <c r="J41" s="70"/>
+      <c r="K41" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="135">
+      <c r="L41" s="129">
         <v>45274</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="144" t="s">
+      <c r="A42" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
     </row>
     <row r="43" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="116" t="s">
+      <c r="D43" s="132"/>
+      <c r="E43" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="139" t="s">
+      <c r="F43" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="G43" s="138"/>
-      <c r="H43" s="140" t="s">
+      <c r="G43" s="132"/>
+      <c r="H43" s="134" t="s">
         <v>336</v>
       </c>
-      <c r="I43" s="85" t="s">
+      <c r="I43" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="138"/>
-      <c r="K43" s="141" t="s">
+      <c r="J43" s="132"/>
+      <c r="K43" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="142">
+      <c r="L43" s="136">
         <v>45275</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="71" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="71" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J44" s="57"/>
-      <c r="K44" s="73" t="s">
+      <c r="J44" s="51"/>
+      <c r="K44" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="81">
+      <c r="L44" s="75">
         <v>45275</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="71" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="122" t="s">
+      <c r="G45" s="51"/>
+      <c r="H45" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J45" s="57"/>
-      <c r="K45" s="73" t="s">
+      <c r="J45" s="51"/>
+      <c r="K45" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="81">
+      <c r="L45" s="75">
         <v>45275</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="73" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="81">
+      <c r="L46" s="75">
         <v>45275</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="93" t="s">
+      <c r="D47" s="86"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="115" t="s">
+      <c r="G47" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="128" t="s">
+      <c r="H47" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="I47" s="80" t="s">
+      <c r="I47" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="96" t="s">
+      <c r="J47" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="K47" s="73" t="s">
+      <c r="K47" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L47" s="81">
+      <c r="L47" s="75">
         <v>45275</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="149" t="s">
+      <c r="A48" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="150"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="151"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="146"/>
     </row>
     <row r="49" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="114" t="s">
+      <c r="D49" s="48"/>
+      <c r="E49" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="56" t="s">
+      <c r="G49" s="48"/>
+      <c r="H49" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="35" t="s">
+      <c r="J49" s="48"/>
+      <c r="K49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L49" s="81">
+      <c r="L49" s="75">
         <v>45275</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="114" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="56" t="s">
+      <c r="G50" s="48"/>
+      <c r="H50" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="54"/>
-      <c r="K50" s="35" t="s">
+      <c r="J50" s="48"/>
+      <c r="K50" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="81">
+      <c r="L50" s="75">
         <v>45275</v>
       </c>
     </row>
@@ -4958,7 +5400,7 @@
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A19:L19"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -4969,8 +5411,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="C32:D32"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4985,225 +5427,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>104</v>
       </c>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="10"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="X4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="2:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="96" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="96" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="96" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
     </row>
     <row r="15" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="96" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="43" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="164" t="s">
+      <c r="B21" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
     </row>
     <row r="22" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="96" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="96" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5211,404 +5653,600 @@
       <c r="A24" t="s">
         <v>178</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="43" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="96" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="166" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
     </row>
     <row r="28" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="43" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="164" t="s">
+      <c r="B33" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
     </row>
     <row r="34" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="2:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="96" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
     </row>
     <row r="41" spans="2:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
     </row>
     <row r="42" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
     </row>
     <row r="44" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+    <row r="47" spans="2:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="174" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+    </row>
+    <row r="48" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="167" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="167" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="168" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="169" t="s">
+        <v>363</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="168" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="169" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="168" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="168" t="s">
+        <v>367</v>
+      </c>
+      <c r="C54" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="168" t="s">
+        <v>368</v>
+      </c>
+      <c r="C55" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="168" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="172" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="168" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="7"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="11"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="168" t="s">
+        <v>373</v>
+      </c>
+      <c r="C60" s="164" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="171" t="s">
+        <v>374</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="168" t="s">
+        <v>375</v>
+      </c>
+      <c r="C61" s="173"/>
+      <c r="D61" s="170" t="s">
+        <v>376</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="168" t="s">
+        <v>377</v>
+      </c>
+      <c r="C62" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="168" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="A64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="175" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="176" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="176" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="176" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="176" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="178" t="s">
+        <v>388</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="7"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="B71" s="176" t="s">
+        <v>384</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E72" s="7"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="B72" s="176" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E73" s="7"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="B73" s="176" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="176" t="s">
+        <v>387</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="177" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="176" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="176" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="176" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="176" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="176" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
+      <c r="A94" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B43:D43"/>
@@ -5618,7 +6256,7 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5647,143 +6285,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="106" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5792,274 +6430,274 @@
     <row r="9" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
     </row>
     <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="106" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="106" t="s">
         <v>279</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="19" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="106" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="106" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="168"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
     </row>
     <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="106" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="26" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6069,7 +6707,7 @@
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A19:K19"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CD4582-6D30-4828-9E08-AB452A515FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EEA0D-80A4-4447-96BB-DA58F86458DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="397">
   <si>
     <t>SOB-1</t>
   </si>
@@ -1403,14 +1403,6 @@
 3. Проверить, что происходит корректный переход на сайты в соответствии с нажатой иконкой.</t>
   </si>
   <si>
-    <t>1. Открыть главную страницу нашего сайта.
-2. навести курсор на пункт  "Магазин" на навигационном меню в хедере нашего сайта.
-3. Из выпадающего списка вбрать пункт "корзина".
-4. В корзине выбирает товар который нужно удалить.
-5. Нажимаем на кнопку удалить (иконка в виде красного крестика).
-6. Во всплывающем окне подтверждаем удаление нажатием на кнопку "ДА".</t>
-  </si>
-  <si>
     <t>1. Проверить, что на странице карточки товара отображается название товара.
 2.Проверить наличие изображения товара.
 3. Проверить отображение цены товара.
@@ -2016,17 +2008,39 @@
       <t>История заказов</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Удаление товара из корзины </t>
+  </si>
+  <si>
+    <t>1. Открыть главную страницу нашего сайта.
+2. Навести курсор на пункт  "Магазин" на навигационном меню в хедере нашего сайта.
+3. Из выпадающего списка вбрать пункт "корзина".
+4. В корзине выбирает товар который нужно удалить.
+5. Нажимаем на кнопку удалить (иконка в виде красного крестика).
+6. Во всплывающем окне подтверждаем удаление нажатием на кнопку "ДА".</t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2473,144 +2487,144 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2620,28 +2634,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2651,60 +2665,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2714,91 +2728,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2807,22 +2821,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2835,61 +2846,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,20 +2930,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2922,49 +2981,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3257,7 +3274,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3349,20 +3366,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
     </row>
     <row r="4" spans="1:12" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -3375,7 +3392,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="48"/>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="152" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -3409,7 +3426,7 @@
         <v>220</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="140"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="47" t="s">
         <v>231</v>
       </c>
@@ -3441,7 +3458,7 @@
         <v>223</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="140"/>
+      <c r="E6" s="152"/>
       <c r="F6" s="47" t="s">
         <v>225</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="70"/>
-      <c r="E7" s="141"/>
+      <c r="E7" s="153"/>
       <c r="F7" s="71" t="s">
         <v>226</v>
       </c>
@@ -3497,20 +3514,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
     </row>
     <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
@@ -3523,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="77"/>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="155" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="76" t="s">
@@ -3555,7 +3572,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="48"/>
-      <c r="E10" s="140"/>
+      <c r="E10" s="152"/>
       <c r="F10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3585,7 +3602,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="140"/>
+      <c r="E11" s="152"/>
       <c r="F11" s="47" t="s">
         <v>44</v>
       </c>
@@ -3615,7 +3632,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="48"/>
-      <c r="E12" s="140"/>
+      <c r="E12" s="152"/>
       <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
@@ -3647,7 +3664,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="70"/>
-      <c r="E13" s="141"/>
+      <c r="E13" s="153"/>
       <c r="F13" s="71" t="s">
         <v>42</v>
       </c>
@@ -3671,20 +3688,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
@@ -3697,7 +3714,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="152" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="47" t="s">
@@ -3729,7 +3746,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="140"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="47" t="s">
         <v>28</v>
       </c>
@@ -3757,7 +3774,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="57"/>
-      <c r="E17" s="140"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="47" t="s">
         <v>27</v>
       </c>
@@ -3787,7 +3804,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="57"/>
-      <c r="E18" s="140"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="47" t="s">
         <v>47</v>
       </c>
@@ -3817,7 +3834,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="140"/>
+      <c r="E19" s="152"/>
       <c r="F19" s="47" t="s">
         <v>26</v>
       </c>
@@ -3847,7 +3864,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="57"/>
-      <c r="E20" s="140"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="47" t="s">
         <v>25</v>
       </c>
@@ -3877,7 +3894,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="57"/>
-      <c r="E21" s="140"/>
+      <c r="E21" s="152"/>
       <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>194</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="140"/>
+      <c r="E22" s="152"/>
       <c r="F22" s="47" t="s">
         <v>196</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>197</v>
       </c>
       <c r="D23" s="89"/>
-      <c r="E23" s="141"/>
+      <c r="E23" s="153"/>
       <c r="F23" s="71" t="s">
         <v>199</v>
       </c>
@@ -3951,20 +3968,20 @@
       <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
     </row>
     <row r="25" spans="1:12" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
@@ -4003,20 +4020,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
     </row>
     <row r="27" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
@@ -4299,7 +4316,7 @@
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4307,10 +4324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4267B-AAC9-4874-B092-D024FCD39A14}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4368,20 +4385,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
+      <c r="A2" s="165" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4417,23 +4434,23 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151" t="s">
+    <row r="4" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="153"/>
-    </row>
-    <row r="5" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
+    </row>
+    <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
@@ -4470,36 +4487,36 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
+      <c r="A7" s="154" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
@@ -4528,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>54</v>
@@ -4538,20 +4555,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="151" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="153"/>
+      <c r="A9" s="166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="168"/>
     </row>
     <row r="10" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
@@ -4564,17 +4581,17 @@
         <v>236</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="126" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G10" s="108" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>2</v>
@@ -4595,9 +4612,9 @@
         <v>237</v>
       </c>
       <c r="D11" s="119"/>
-      <c r="E11" s="127"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" s="67" t="s">
         <v>9</v>
@@ -4625,9 +4642,9 @@
         <v>309</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="127"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="65" t="s">
@@ -4652,9 +4669,9 @@
         <v>238</v>
       </c>
       <c r="D13" s="77"/>
-      <c r="E13" s="127"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="124" t="s">
         <v>46</v>
@@ -4682,9 +4699,9 @@
         <v>282</v>
       </c>
       <c r="D14" s="57"/>
-      <c r="E14" s="127"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G14" s="63" t="s">
         <v>10</v>
@@ -4696,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="123" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>54</v>
@@ -4713,9 +4730,9 @@
         <v>283</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="127"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>11</v>
@@ -4742,9 +4759,9 @@
         <v>285</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="127"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>3</v>
@@ -4772,9 +4789,9 @@
         <v>284</v>
       </c>
       <c r="D17" s="51"/>
-      <c r="E17" s="127"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>3</v>
@@ -4801,9 +4818,9 @@
         <v>286</v>
       </c>
       <c r="D18" s="89"/>
-      <c r="E18" s="127"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G18" s="91" t="s">
         <v>198</v>
@@ -4823,20 +4840,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154" t="s">
-        <v>341</v>
-      </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
+      <c r="A19" s="159" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
     </row>
     <row r="20" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
@@ -4853,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G20" s="108" t="s">
         <v>51</v>
@@ -4864,8 +4881,8 @@
       <c r="I20" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="137" t="s">
-        <v>359</v>
+      <c r="J20" s="136" t="s">
+        <v>358</v>
       </c>
       <c r="K20" s="52" t="s">
         <v>54</v>
@@ -4874,7 +4891,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
       <c r="B21" s="29" t="s">
         <v>266</v>
@@ -4883,15 +4900,17 @@
         <v>307</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="125"/>
+      <c r="E21" s="149" t="s">
+        <v>1</v>
+      </c>
       <c r="F21" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G21" s="108" t="s">
         <v>306</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>52</v>
@@ -4904,7 +4923,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
         <v>267</v>
       </c>
@@ -4912,13 +4931,15 @@
         <v>305</v>
       </c>
       <c r="D22" s="48"/>
-      <c r="E22" s="125"/>
+      <c r="E22" s="149" t="s">
+        <v>1</v>
+      </c>
       <c r="F22" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>52</v>
@@ -4931,23 +4952,25 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="125"/>
+      <c r="E23" s="149" t="s">
+        <v>1</v>
+      </c>
       <c r="F23" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="H23" s="65" t="s">
         <v>333</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>334</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>52</v>
@@ -4960,23 +4983,25 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="E24" s="149" t="s">
+        <v>1</v>
+      </c>
       <c r="F24" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="G24" s="126" t="s">
         <v>348</v>
       </c>
+      <c r="G24" s="125" t="s">
+        <v>347</v>
+      </c>
       <c r="H24" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>52</v>
@@ -4989,20 +5014,22 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="G25" s="126" t="s">
-        <v>343</v>
+      <c r="G25" s="125" t="s">
+        <v>342</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>101</v>
@@ -5018,15 +5045,17 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="C26" s="116" t="s">
-        <v>355</v>
-      </c>
       <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="E26" s="149" t="s">
+        <v>1</v>
+      </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
@@ -5036,363 +5065,388 @@
       <c r="L26" s="51"/>
     </row>
     <row r="27" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:12" ht="127.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:12" ht="90" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="147" t="s">
+    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
+    </row>
+    <row r="29" spans="1:12" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="48"/>
+      <c r="K29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="53">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="53">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="70"/>
+      <c r="K31" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="128">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="179" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+    </row>
+    <row r="33" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
+    </row>
+    <row r="35" spans="1:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="130" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="131"/>
+      <c r="E35" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="132" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="131"/>
+      <c r="H35" s="133" t="s">
+        <v>335</v>
+      </c>
+      <c r="I35" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="131"/>
+      <c r="K35" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="135">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="51"/>
+      <c r="H36" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="75">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="51"/>
+      <c r="H37" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="51"/>
+      <c r="K37" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="75">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="75">
+        <v>45275</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>73</v>
-      </c>
       <c r="B39" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="86"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="44" t="s">
+      <c r="H39" s="122" t="s">
+        <v>315</v>
+      </c>
+      <c r="I39" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="75">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="156" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="158"/>
+    </row>
+    <row r="41" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="29" t="s">
+      <c r="J41" s="48"/>
+      <c r="K41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="53">
-        <v>45274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="108" t="s">
-        <v>342</v>
-      </c>
-      <c r="E40" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="G40" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="44" t="s">
+      <c r="L41" s="75">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="48"/>
+      <c r="H42" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="29" t="s">
+      <c r="J42" s="48"/>
+      <c r="K42" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="53">
-        <v>45274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="G41" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="129">
-        <v>45274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="139" t="s">
-        <v>298</v>
-      </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-    </row>
-    <row r="43" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="131" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="132"/>
-      <c r="E43" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="I43" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="132"/>
-      <c r="K43" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" s="136">
+      <c r="L42" s="75">
         <v>45275</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="C45" s="65" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L45" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L46" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="122" t="s">
-        <v>316</v>
-      </c>
-      <c r="I47" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="90" t="s">
-        <v>315</v>
-      </c>
-      <c r="K47" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="146"/>
-    </row>
-    <row r="49" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L49" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="108" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L50" s="75">
-        <v>45275</v>
-      </c>
-    </row>
+    <row r="43" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A28:L28"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:L4"/>
@@ -5400,7 +5454,7 @@
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A19:L19"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -5411,7 +5465,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -5439,11 +5493,11 @@
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5554,11 +5608,11 @@
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
     </row>
     <row r="15" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -5621,11 +5675,11 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
     </row>
     <row r="22" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
@@ -5686,11 +5740,11 @@
     </row>
     <row r="27" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
     </row>
     <row r="28" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
@@ -5741,11 +5795,11 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
     </row>
     <row r="34" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
@@ -5804,18 +5858,18 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="157" t="s">
+      <c r="B40" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="175"/>
     </row>
     <row r="41" spans="2:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
     </row>
     <row r="42" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
@@ -5827,11 +5881,11 @@
       <c r="D42" s="38"/>
     </row>
     <row r="43" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
     </row>
     <row r="44" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="39" t="s">
@@ -5845,130 +5899,130 @@
     <row r="45" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="174"/>
     </row>
     <row r="48" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="167" t="s">
+      <c r="C48" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="167" t="s">
+      <c r="D48" s="139" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="140" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="144" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="165" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="141" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="169" t="s">
+      <c r="D50" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="140" t="s">
         <v>363</v>
       </c>
-      <c r="C50" s="165" t="s">
+      <c r="C51" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="168" t="s">
+      <c r="D51" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="C51" s="165" t="s">
+      <c r="C52" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="169" t="s">
+      <c r="D52" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="C52" s="165" t="s">
+      <c r="C53" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="140" t="s">
+        <v>366</v>
+      </c>
+      <c r="C54" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="168" t="s">
-        <v>366</v>
-      </c>
-      <c r="C53" s="166" t="s">
+      <c r="D54" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="140" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="140" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="168" t="s">
-        <v>367</v>
-      </c>
-      <c r="C54" s="165" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="168" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="165" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="168" t="s">
-        <v>369</v>
-      </c>
-      <c r="C56" s="165" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="168" t="s">
-        <v>370</v>
-      </c>
-      <c r="C57" s="165" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="172" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="168" t="s">
-        <v>371</v>
-      </c>
-      <c r="C58" s="166" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="172" t="s">
-        <v>362</v>
+      <c r="D58" s="144" t="s">
+        <v>361</v>
       </c>
       <c r="E58" s="4"/>
       <c r="G58" s="4"/>
@@ -5976,14 +6030,14 @@
     </row>
     <row r="59" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="168" t="s">
-        <v>372</v>
-      </c>
-      <c r="C59" s="165" t="s">
+      <c r="B59" s="140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="172" t="s">
-        <v>362</v>
+      <c r="D59" s="144" t="s">
+        <v>361</v>
       </c>
       <c r="E59" s="4"/>
       <c r="G59" s="4"/>
@@ -5991,26 +6045,26 @@
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="168" t="s">
+      <c r="B60" s="140" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="172" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="143" t="s">
         <v>373</v>
-      </c>
-      <c r="C60" s="164" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="171" t="s">
-        <v>374</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="168" t="s">
+      <c r="B61" s="140" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="173"/>
+      <c r="D61" s="142" t="s">
         <v>375</v>
-      </c>
-      <c r="C61" s="173"/>
-      <c r="D61" s="170" t="s">
-        <v>376</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="4"/>
@@ -6018,14 +6072,14 @@
     </row>
     <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
-      <c r="B62" s="168" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" s="165" t="s">
+      <c r="B62" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="172" t="s">
-        <v>362</v>
+      <c r="D62" s="144" t="s">
+        <v>361</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="4"/>
@@ -6033,14 +6087,14 @@
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="168" t="s">
-        <v>378</v>
-      </c>
-      <c r="C63" s="165" t="s">
+      <c r="B63" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="172" t="s">
-        <v>362</v>
+      <c r="D63" s="144" t="s">
+        <v>361</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="8"/>
@@ -6058,8 +6112,8 @@
     </row>
     <row r="65" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
-      <c r="B65" s="175" t="s">
-        <v>379</v>
+      <c r="B65" s="145" t="s">
+        <v>378</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4"/>
@@ -6070,8 +6124,8 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="176" t="s">
-        <v>380</v>
+      <c r="B66" s="146" t="s">
+        <v>379</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -6081,8 +6135,8 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="176" t="s">
-        <v>381</v>
+      <c r="B67" s="146" t="s">
+        <v>380</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -6092,8 +6146,8 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="176" t="s">
-        <v>382</v>
+      <c r="B68" s="146" t="s">
+        <v>381</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="8"/>
@@ -6102,8 +6156,8 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="176" t="s">
-        <v>383</v>
+      <c r="B69" s="146" t="s">
+        <v>382</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="8"/>
@@ -6112,8 +6166,8 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="178" t="s">
-        <v>388</v>
+      <c r="B70" s="148" t="s">
+        <v>387</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8"/>
@@ -6121,8 +6175,8 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="176" t="s">
-        <v>384</v>
+      <c r="B71" s="146" t="s">
+        <v>383</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="8"/>
@@ -6130,8 +6184,8 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="176" t="s">
-        <v>385</v>
+      <c r="B72" s="146" t="s">
+        <v>384</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8"/>
@@ -6139,8 +6193,8 @@
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="176" t="s">
-        <v>386</v>
+      <c r="B73" s="146" t="s">
+        <v>385</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="7"/>
@@ -6149,8 +6203,8 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="B74" s="176" t="s">
-        <v>387</v>
+      <c r="B74" s="146" t="s">
+        <v>386</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="7"/>
@@ -6159,8 +6213,8 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="177" t="s">
-        <v>389</v>
+      <c r="B75" s="147" t="s">
+        <v>388</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="7"/>
@@ -6169,36 +6223,36 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
-      <c r="B76" s="176" t="s">
-        <v>390</v>
+      <c r="B76" s="146" t="s">
+        <v>389</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="176" t="s">
-        <v>391</v>
+      <c r="B77" s="146" t="s">
+        <v>390</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="176" t="s">
-        <v>392</v>
+      <c r="B78" s="146" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="176" t="s">
-        <v>393</v>
+      <c r="B79" s="146" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="176" t="s">
-        <v>394</v>
+      <c r="B80" s="146" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -6256,7 +6310,7 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B27:D27"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6264,10 +6318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B62FF2-D363-46F5-AB94-D5D2B9D503BB}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6320,19 +6374,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
     </row>
     <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -6425,40 +6479,203 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="95.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="107.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="163" t="s">
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-    </row>
-    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+    </row>
+    <row r="9" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+    </row>
+    <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="106" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>185</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>278</v>
+        <v>186</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>180</v>
@@ -6475,20 +6692,22 @@
     </row>
     <row r="16" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="106" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>279</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="20" t="s">
         <v>180</v>
       </c>
@@ -6499,25 +6718,25 @@
         <v>179</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>280</v>
+        <v>291</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" s="100" t="s">
-        <v>250</v>
+      <c r="D17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="20" t="s">
@@ -6533,181 +6752,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-    </row>
-    <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A13:K13"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EEA0D-80A4-4447-96BB-DA58F86458DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5725D5C-E7B1-4FE9-907D-DE8C8F5FF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест кейс" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="389">
   <si>
     <t>SOB-1</t>
   </si>
@@ -1624,9 +1624,6 @@
     <t>Наличие кнопоки "Купить"</t>
   </si>
   <si>
-    <t>Класс эквивалентности</t>
-  </si>
-  <si>
     <t>Наличие кнопоки "Заказать"</t>
   </si>
   <si>
@@ -1636,377 +1633,13 @@
     <t>Удаление товар из корзины</t>
   </si>
   <si>
-    <t>После заказа приходит письмо на почту.</t>
-  </si>
-  <si>
-    <t>Есть фильтры для поиска товаров.</t>
-  </si>
-  <si>
-    <t>Есть форма обратной связи.</t>
-  </si>
-  <si>
-    <t>Есть раздел с контактами.</t>
-  </si>
-  <si>
-    <t>Есть ссылки на социальные сети.</t>
-  </si>
-  <si>
-    <t>Присутствуют хлебные крошки.</t>
-  </si>
-  <si>
-    <t>Отсутствуют опечатки.</t>
-  </si>
-  <si>
-    <t>Проверка возможностей личного кабинета.</t>
-  </si>
-  <si>
-    <t>Отсутствует личный кабинет</t>
-  </si>
-  <si>
-    <t>Строка поиска находится на видном месте.</t>
-  </si>
-  <si>
-    <t>Отсутствует строка поиска</t>
-  </si>
-  <si>
-    <t>Нет дублирующихся товаров.</t>
-  </si>
-  <si>
-    <t>Легко найти нужный товар.</t>
-  </si>
-  <si>
     <t>Проверка корзины</t>
   </si>
   <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>добавить товар</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>удалить товар</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>оформить заказ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>оплата</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сортировка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>добавление в избранное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>поиск товара</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>фильтры</t>
-    </r>
-  </si>
-  <si>
     <t>Каталог товаров</t>
   </si>
   <si>
     <t>Личный кабинет</t>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>редактирование профиля</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>удаление профиля</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>бонусная система</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>авторизация</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>История заказов</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Удаление товара из корзины </t>
@@ -2021,6 +1654,63 @@
   </si>
   <si>
     <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>После заказа приходит письмо на почту</t>
+  </si>
+  <si>
+    <t>Есть фильтры для поиска товаров</t>
+  </si>
+  <si>
+    <t>Есть форма обратной связи</t>
+  </si>
+  <si>
+    <t>Есть раздел с контактами</t>
+  </si>
+  <si>
+    <t>Есть ссылки на социальные сети</t>
+  </si>
+  <si>
+    <t>Присутствуют хлебные крошки</t>
+  </si>
+  <si>
+    <t>Отсутствуют опечатки</t>
+  </si>
+  <si>
+    <t>Нет дублирующихся товаров</t>
+  </si>
+  <si>
+    <t>Легко найти нужный товар</t>
+  </si>
+  <si>
+    <t>Происходит оплата</t>
+  </si>
+  <si>
+    <t>Отсутствует функционал</t>
+  </si>
+  <si>
+    <t>Сортировка товаров</t>
+  </si>
+  <si>
+    <t>Поиск товара</t>
+  </si>
+  <si>
+    <t>Функционал не реализован</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> История заказов</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Редактирование профиля</t>
+  </si>
+  <si>
+    <t>Удаление профиля</t>
+  </si>
+  <si>
+    <t>Бонусная система</t>
   </si>
 </sst>
 </file>
@@ -2033,14 +1723,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2259,11 +1941,18 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2316,7 +2005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2470,161 +2159,148 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2634,28 +2310,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2665,60 +2341,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2728,91 +2404,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2824,16 +2497,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2846,79 +2519,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2930,50 +2585,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2981,8 +2624,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2992,8 +2680,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCE5CD"/>
       <color rgb="FFFCD0CE"/>
-      <color rgb="FFFCE5CD"/>
       <color rgb="FFDEDEDE"/>
     </mruColors>
   </colors>
@@ -3366,20 +3054,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
     </row>
     <row r="4" spans="1:12" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -3392,7 +3080,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="48"/>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="145" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -3426,7 +3114,7 @@
         <v>220</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="152"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="47" t="s">
         <v>231</v>
       </c>
@@ -3458,7 +3146,7 @@
         <v>223</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="152"/>
+      <c r="E6" s="145"/>
       <c r="F6" s="47" t="s">
         <v>225</v>
       </c>
@@ -3490,7 +3178,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="70"/>
-      <c r="E7" s="153"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="71" t="s">
         <v>226</v>
       </c>
@@ -3514,20 +3202,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
     </row>
     <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
@@ -3540,7 +3228,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="77"/>
-      <c r="E9" s="155" t="s">
+      <c r="E9" s="148" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="76" t="s">
@@ -3572,7 +3260,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="48"/>
-      <c r="E10" s="152"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3602,7 +3290,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="152"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="47" t="s">
         <v>44</v>
       </c>
@@ -3632,7 +3320,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="48"/>
-      <c r="E12" s="152"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
@@ -3664,7 +3352,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="70"/>
-      <c r="E13" s="153"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="71" t="s">
         <v>42</v>
       </c>
@@ -3688,20 +3376,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
@@ -3714,7 +3402,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="145" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="47" t="s">
@@ -3746,7 +3434,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="152"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="47" t="s">
         <v>28</v>
       </c>
@@ -3774,7 +3462,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="57"/>
-      <c r="E17" s="152"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="47" t="s">
         <v>27</v>
       </c>
@@ -3804,7 +3492,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="57"/>
-      <c r="E18" s="152"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="47" t="s">
         <v>47</v>
       </c>
@@ -3834,7 +3522,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="152"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="47" t="s">
         <v>26</v>
       </c>
@@ -3864,7 +3552,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="57"/>
-      <c r="E20" s="152"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="47" t="s">
         <v>25</v>
       </c>
@@ -3894,7 +3582,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="57"/>
-      <c r="E21" s="152"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
@@ -3924,7 +3612,7 @@
         <v>194</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="152"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="47" t="s">
         <v>196</v>
       </c>
@@ -3950,7 +3638,7 @@
         <v>197</v>
       </c>
       <c r="D23" s="89"/>
-      <c r="E23" s="153"/>
+      <c r="E23" s="146"/>
       <c r="F23" s="71" t="s">
         <v>199</v>
       </c>
@@ -3968,20 +3656,20 @@
       <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="151" t="s">
+      <c r="A24" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
     </row>
     <row r="25" spans="1:12" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
@@ -4020,20 +3708,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
     </row>
     <row r="27" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
@@ -4316,7 +4004,7 @@
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4326,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4267B-AAC9-4874-B092-D024FCD39A14}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4346,59 +4034,59 @@
     <col min="12" max="12" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:12" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="112" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4435,20 +4123,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
@@ -4487,36 +4175,36 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="147" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
@@ -4554,21 +4242,21 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="166" t="s">
+    <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="159" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="168"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
     </row>
     <row r="10" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
@@ -4581,7 +4269,7 @@
         <v>236</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="125" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="47" t="s">
@@ -4605,14 +4293,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="116" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="71" t="s">
         <v>317</v>
       </c>
@@ -4625,8 +4313,8 @@
       <c r="I11" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="118" t="s">
+      <c r="J11" s="119"/>
+      <c r="K11" s="117" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="53">
@@ -4638,11 +4326,11 @@
       <c r="B12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="115" t="s">
         <v>309</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="126"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="65" t="s">
         <v>324</v>
       </c>
@@ -4662,18 +4350,18 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="116" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>238</v>
       </c>
       <c r="D13" s="77"/>
-      <c r="E13" s="126"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="G13" s="124" t="s">
+      <c r="G13" s="123" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="78" t="s">
@@ -4682,7 +4370,7 @@
       <c r="I13" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="121"/>
+      <c r="J13" s="120"/>
       <c r="K13" s="52" t="s">
         <v>54</v>
       </c>
@@ -4699,7 +4387,7 @@
         <v>282</v>
       </c>
       <c r="D14" s="57"/>
-      <c r="E14" s="126"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="47" t="s">
         <v>330</v>
       </c>
@@ -4712,7 +4400,7 @@
       <c r="I14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="123" t="s">
+      <c r="J14" s="122" t="s">
         <v>321</v>
       </c>
       <c r="K14" s="52" t="s">
@@ -4723,14 +4411,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="116" t="s">
         <v>213</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>283</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="126"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="47" t="s">
         <v>322</v>
       </c>
@@ -4759,7 +4447,7 @@
         <v>285</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="126"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="47" t="s">
         <v>323</v>
       </c>
@@ -4789,7 +4477,7 @@
         <v>284</v>
       </c>
       <c r="D17" s="51"/>
-      <c r="E17" s="126"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="47" t="s">
         <v>319</v>
       </c>
@@ -4811,14 +4499,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="116" t="s">
         <v>216</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>286</v>
       </c>
       <c r="D18" s="89"/>
-      <c r="E18" s="126"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="71" t="s">
         <v>318</v>
       </c>
@@ -4832,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="89"/>
-      <c r="K18" s="118" t="s">
+      <c r="K18" s="117" t="s">
         <v>54</v>
       </c>
       <c r="L18" s="53">
@@ -4840,20 +4528,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
     </row>
     <row r="20" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
@@ -4878,10 +4566,10 @@
       <c r="H20" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="115" t="s">
+      <c r="I20" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="136" t="s">
+      <c r="J20" s="135" t="s">
         <v>358</v>
       </c>
       <c r="K20" s="52" t="s">
@@ -4900,7 +4588,7 @@
         <v>307</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="139" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="47" t="s">
@@ -4931,7 +4619,7 @@
         <v>305</v>
       </c>
       <c r="D22" s="48"/>
-      <c r="E22" s="149" t="s">
+      <c r="E22" s="139" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="47" t="s">
@@ -4960,13 +4648,13 @@
         <v>327</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="139" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="124" t="s">
         <v>332</v>
       </c>
       <c r="H23" s="65" t="s">
@@ -4991,13 +4679,13 @@
         <v>344</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="149" t="s">
+      <c r="E24" s="139" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="G24" s="125" t="s">
+      <c r="G24" s="124" t="s">
         <v>347</v>
       </c>
       <c r="H24" s="65" t="s">
@@ -5014,7 +4702,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
         <v>352</v>
       </c>
@@ -5022,13 +4710,13 @@
         <v>345</v>
       </c>
       <c r="D25" s="51"/>
-      <c r="E25" s="149" t="s">
+      <c r="E25" s="139" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="G25" s="125" t="s">
+      <c r="G25" s="124" t="s">
         <v>342</v>
       </c>
       <c r="H25" s="50" t="s">
@@ -5049,11 +4737,11 @@
       <c r="B26" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="115" t="s">
         <v>354</v>
       </c>
       <c r="D26" s="51"/>
-      <c r="E26" s="149" t="s">
+      <c r="E26" s="140" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="51"/>
@@ -5066,20 +4754,20 @@
     </row>
     <row r="27" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="164"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="1:12" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -5120,7 +4808,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="D30" s="108" t="s">
         <v>341</v>
@@ -5129,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>69</v>
@@ -5156,13 +4844,13 @@
         <v>295</v>
       </c>
       <c r="D31" s="70"/>
-      <c r="E31" s="127" t="s">
+      <c r="E31" s="126" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="127" t="s">
+      <c r="G31" s="126" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="73" t="s">
@@ -5175,7 +4863,7 @@
       <c r="K31" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="128">
+      <c r="L31" s="127">
         <v>45274</v>
       </c>
     </row>
@@ -5183,8 +4871,8 @@
       <c r="B32" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="179" t="s">
-        <v>396</v>
+      <c r="C32" s="142" t="s">
+        <v>369</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
@@ -5210,54 +4898,54 @@
       <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="161"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
     </row>
     <row r="35" spans="1:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="130" t="s">
+      <c r="C35" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="D35" s="131"/>
-      <c r="E35" s="110" t="s">
+      <c r="D35" s="130"/>
+      <c r="E35" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="132" t="s">
+      <c r="F35" s="131" t="s">
         <v>301</v>
       </c>
-      <c r="G35" s="131"/>
-      <c r="H35" s="133" t="s">
+      <c r="G35" s="130"/>
+      <c r="H35" s="132" t="s">
         <v>335</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="134" t="s">
+      <c r="J35" s="130"/>
+      <c r="K35" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="135">
+      <c r="L35" s="134">
         <v>45275</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
         <v>112</v>
       </c>
@@ -5265,7 +4953,7 @@
         <v>299</v>
       </c>
       <c r="D36" s="51"/>
-      <c r="E36" s="110"/>
+      <c r="E36" s="140"/>
       <c r="F36" s="65" t="s">
         <v>312</v>
       </c>
@@ -5284,7 +4972,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
         <v>355</v>
       </c>
@@ -5292,12 +4980,12 @@
         <v>302</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="110"/>
+      <c r="E37" s="140"/>
       <c r="F37" s="65" t="s">
         <v>313</v>
       </c>
       <c r="G37" s="51"/>
-      <c r="H37" s="116" t="s">
+      <c r="H37" s="115" t="s">
         <v>308</v>
       </c>
       <c r="I37" s="44" t="s">
@@ -5330,7 +5018,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="29" t="s">
         <v>357</v>
       </c>
@@ -5338,14 +5026,14 @@
         <v>195</v>
       </c>
       <c r="D39" s="86"/>
-      <c r="E39" s="76"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="87" t="s">
         <v>172</v>
       </c>
       <c r="G39" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="122" t="s">
+      <c r="H39" s="121" t="s">
         <v>315</v>
       </c>
       <c r="I39" s="74" t="s">
@@ -5362,22 +5050,22 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="158"/>
-    </row>
-    <row r="41" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="151"/>
+    </row>
+    <row r="41" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>110</v>
       </c>
@@ -5454,7 +5142,7 @@
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A19:L19"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -5465,8 +5153,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5477,7 +5165,9 @@
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
     <col min="5" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5490,17 +5180,31 @@
       <c r="D1" s="24" t="s">
         <v>104</v>
       </c>
+      <c r="H1" s="179" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="H2" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="137" t="s">
+        <v>104</v>
+      </c>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>137</v>
       </c>
@@ -5508,9 +5212,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="10"/>
+      <c r="H3" s="178" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>157</v>
       </c>
@@ -5518,9 +5227,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="10"/>
+      <c r="H4" s="173" t="s">
+        <v>360</v>
+      </c>
+      <c r="I4" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="176"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>138</v>
       </c>
@@ -5528,8 +5244,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="172" t="s">
+        <v>361</v>
+      </c>
+      <c r="I5" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="174"/>
+    </row>
+    <row r="6" spans="2:24" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>201</v>
       </c>
@@ -5537,8 +5260,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="170" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="174"/>
+    </row>
+    <row r="7" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>202</v>
       </c>
@@ -5546,8 +5276,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:24" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="171" t="s">
+        <v>363</v>
+      </c>
+      <c r="I7" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="175"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>162</v>
       </c>
@@ -5555,6 +5292,15 @@
         <v>22</v>
       </c>
       <c r="D8" s="10"/>
+      <c r="H8" s="171" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="175" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
@@ -5566,6 +5312,13 @@
       <c r="D9" s="96" t="s">
         <v>262</v>
       </c>
+      <c r="H9" s="172" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -5577,8 +5330,13 @@
       <c r="D10" s="96" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="177" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>155</v>
       </c>
@@ -5587,6 +5345,15 @@
       </c>
       <c r="D11" s="96" t="s">
         <v>263</v>
+      </c>
+      <c r="H11" s="172" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="174" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5597,8 +5364,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="170" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="174" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>161</v>
       </c>
@@ -5606,15 +5382,29 @@
         <v>2</v>
       </c>
       <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="169" t="s">
+      <c r="H13" s="170" t="s">
+        <v>371</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="174"/>
+    </row>
+    <row r="14" spans="2:24" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-    </row>
-    <row r="15" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="H14" s="172" t="s">
+        <v>381</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="174"/>
+    </row>
+    <row r="15" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>204</v>
       </c>
@@ -5622,8 +5412,15 @@
         <v>2</v>
       </c>
       <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="172" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="174"/>
+    </row>
+    <row r="16" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>206</v>
       </c>
@@ -5631,8 +5428,15 @@
         <v>22</v>
       </c>
       <c r="D16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="170" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="174"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>154</v>
       </c>
@@ -5642,8 +5446,15 @@
       <c r="D17" s="96" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="170" t="s">
+        <v>377</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="174"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>117</v>
       </c>
@@ -5653,8 +5464,15 @@
       <c r="D18" s="96" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="170" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="174"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>205</v>
       </c>
@@ -5664,8 +5482,13 @@
       <c r="D19" s="43" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="177" t="s">
+        <v>366</v>
+      </c>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>124</v>
       </c>
@@ -5673,15 +5496,29 @@
         <v>2</v>
       </c>
       <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="169" t="s">
+      <c r="H20" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="I20" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="181" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-    </row>
-    <row r="22" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="H21" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="180"/>
+      <c r="J21" s="182"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>125</v>
       </c>
@@ -5691,8 +5528,13 @@
       <c r="D22" s="96" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="I22" s="180"/>
+      <c r="J22" s="182"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>133</v>
       </c>
@@ -5702,8 +5544,13 @@
       <c r="D23" s="96" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="I23" s="180"/>
+      <c r="J23" s="182"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -5716,8 +5563,13 @@
       <c r="D24" s="43" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="I24" s="180"/>
+      <c r="J24" s="183"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>126</v>
       </c>
@@ -5725,8 +5577,11 @@
         <v>2</v>
       </c>
       <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="33" t="s">
         <v>208</v>
@@ -5737,16 +5592,30 @@
       <c r="D26" s="96" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="170" t="s">
+        <v>372</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="174"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="H27" s="173" t="s">
+        <v>373</v>
+      </c>
+      <c r="I27" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="176"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
       <c r="B28" s="34" t="s">
         <v>118</v>
@@ -5755,8 +5624,15 @@
         <v>2</v>
       </c>
       <c r="D28" s="38"/>
-    </row>
-    <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="170" t="s">
+        <v>374</v>
+      </c>
+      <c r="I28" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="174"/>
+    </row>
+    <row r="29" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>158</v>
       </c>
@@ -5764,8 +5640,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="38"/>
-    </row>
-    <row r="30" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="170" t="s">
+        <v>376</v>
+      </c>
+      <c r="I29" s="136" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="174"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
         <v>119</v>
       </c>
@@ -5774,7 +5657,7 @@
       </c>
       <c r="D30" s="38"/>
     </row>
-    <row r="31" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>135</v>
       </c>
@@ -5783,7 +5666,7 @@
       </c>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>142</v>
       </c>
@@ -5794,14 +5677,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="169" t="s">
+    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-    </row>
-    <row r="34" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="H33" s="138"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
         <v>127</v>
       </c>
@@ -5809,8 +5693,9 @@
         <v>2</v>
       </c>
       <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="2:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="138"/>
+    </row>
+    <row r="35" spans="2:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>128</v>
       </c>
@@ -5818,8 +5703,9 @@
         <v>2</v>
       </c>
       <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="138"/>
+    </row>
+    <row r="36" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
         <v>129</v>
       </c>
@@ -5827,8 +5713,9 @@
         <v>2</v>
       </c>
       <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="138"/>
+    </row>
+    <row r="37" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33" t="s">
         <v>130</v>
       </c>
@@ -5836,8 +5723,9 @@
         <v>2</v>
       </c>
       <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="138"/>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37" t="s">
         <v>132</v>
       </c>
@@ -5846,7 +5734,7 @@
       </c>
       <c r="D38" s="38"/>
     </row>
-    <row r="39" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="30" t="s">
         <v>159</v>
       </c>
@@ -5857,21 +5745,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="175" t="s">
+    <row r="40" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="175"/>
-      <c r="D40" s="175"/>
-    </row>
-    <row r="41" spans="2:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="176" t="s">
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+    </row>
+    <row r="41" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="176"/>
-    </row>
-    <row r="42" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="162"/>
+      <c r="D41" s="162"/>
+    </row>
+    <row r="42" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
         <v>136</v>
       </c>
@@ -5880,14 +5768,14 @@
       </c>
       <c r="D42" s="38"/>
     </row>
-    <row r="43" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="176" t="s">
+    <row r="43" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-    </row>
-    <row r="44" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+    </row>
+    <row r="44" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="39" t="s">
         <v>122</v>
       </c>
@@ -5896,206 +5784,42 @@
       </c>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="174" t="s">
-        <v>359</v>
-      </c>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-    </row>
-    <row r="48" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="139" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="140" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="141" t="s">
-        <v>362</v>
-      </c>
-      <c r="C50" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="140" t="s">
-        <v>363</v>
-      </c>
-      <c r="C51" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="141" t="s">
-        <v>364</v>
-      </c>
-      <c r="C52" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="140" t="s">
-        <v>365</v>
-      </c>
-      <c r="C53" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="140" t="s">
-        <v>366</v>
-      </c>
-      <c r="C54" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="140" t="s">
-        <v>367</v>
-      </c>
-      <c r="C55" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="140" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="140" t="s">
-        <v>369</v>
-      </c>
-      <c r="C57" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="144" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="140" t="s">
-        <v>370</v>
-      </c>
-      <c r="C58" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="144" t="s">
-        <v>361</v>
-      </c>
+    <row r="45" spans="2:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="140" t="s">
-        <v>371</v>
-      </c>
-      <c r="C59" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="144" t="s">
-        <v>361</v>
-      </c>
       <c r="E59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="140" t="s">
-        <v>372</v>
-      </c>
-      <c r="C60" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="143" t="s">
-        <v>373</v>
-      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="140" t="s">
-        <v>374</v>
-      </c>
-      <c r="C61" s="173"/>
-      <c r="D61" s="142" t="s">
-        <v>375</v>
-      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="140" t="s">
-        <v>376</v>
-      </c>
-      <c r="C62" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="144" t="s">
-        <v>361</v>
-      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="140" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="144" t="s">
-        <v>361</v>
-      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="8"/>
       <c r="G63" s="6"/>
@@ -6112,9 +5836,6 @@
     </row>
     <row r="65" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
-      <c r="B65" s="145" t="s">
-        <v>378</v>
-      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -6124,9 +5845,6 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="146" t="s">
-        <v>379</v>
-      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="8"/>
@@ -6135,9 +5853,6 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="146" t="s">
-        <v>380</v>
-      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="8"/>
@@ -6146,9 +5861,6 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="146" t="s">
-        <v>381</v>
-      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="8"/>
       <c r="G68" s="4"/>
@@ -6156,9 +5868,6 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="146" t="s">
-        <v>382</v>
-      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="8"/>
       <c r="G69" s="4"/>
@@ -6166,36 +5875,24 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="148" t="s">
-        <v>387</v>
-      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="146" t="s">
-        <v>383</v>
-      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="8"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="146" t="s">
-        <v>384</v>
-      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="146" t="s">
-        <v>385</v>
-      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="7"/>
       <c r="G73" s="4"/>
@@ -6203,9 +5900,6 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="B74" s="146" t="s">
-        <v>386</v>
-      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="7"/>
       <c r="G74" s="4"/>
@@ -6213,9 +5907,6 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="147" t="s">
-        <v>388</v>
-      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="7"/>
       <c r="G75" s="4"/>
@@ -6223,37 +5914,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
-      <c r="B76" s="146" t="s">
-        <v>389</v>
-      </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="146" t="s">
-        <v>390</v>
-      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="146" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="146" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="146" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
@@ -6298,19 +5974,23 @@
       <c r="A94" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
+  <mergeCells count="14">
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6374,19 +6054,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
     </row>
     <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -6402,7 +6082,7 @@
       <c r="E3" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="111" t="s">
         <v>183</v>
       </c>
       <c r="G3" s="17"/>
@@ -6481,19 +6161,19 @@
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
     </row>
     <row r="9" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -6616,17 +6296,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="178"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
+      <c r="A13" s="167"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
     </row>
     <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -6668,7 +6348,7 @@
       <c r="B15" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>185</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -6758,7 +6438,7 @@
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A13:K13"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5725D5C-E7B1-4FE9-907D-DE8C8F5FF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD8FDE4-F57E-4E69-9F68-83BB4AC30426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест кейс" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="410">
   <si>
     <t>SOB-1</t>
   </si>
@@ -1537,9 +1537,6 @@
     <t>Проверка  формы обратной связи "Спросите нас о собачках"</t>
   </si>
   <si>
-    <t xml:space="preserve">Наличие товара в корзине или выполнить тест кейс SOB-5.1    </t>
-  </si>
-  <si>
     <t>ivan3000@gmail.com</t>
   </si>
   <si>
@@ -1586,19 +1583,97 @@
     <t>SOB-4.6</t>
   </si>
   <si>
-    <t>SOB-4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка рабтоспособности внешнего вида </t>
-  </si>
-  <si>
     <t>SOB-6.3</t>
   </si>
   <si>
     <t>SOB-6.4</t>
   </si>
   <si>
-    <t>SOB-6.5</t>
+    <t>Чек лист магазина</t>
+  </si>
+  <si>
+    <t>Наличие кнопоки "Купить"</t>
+  </si>
+  <si>
+    <t>Наличие кнопоки "Заказать"</t>
+  </si>
+  <si>
+    <t>Добавление товар в корзину</t>
+  </si>
+  <si>
+    <t>Удаление товар из корзины</t>
+  </si>
+  <si>
+    <t>Проверка корзины</t>
+  </si>
+  <si>
+    <t>Каталог товаров</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удаление товара из корзины </t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>После заказа приходит письмо на почту</t>
+  </si>
+  <si>
+    <t>Есть фильтры для поиска товаров</t>
+  </si>
+  <si>
+    <t>Есть форма обратной связи</t>
+  </si>
+  <si>
+    <t>Есть раздел с контактами</t>
+  </si>
+  <si>
+    <t>Есть ссылки на социальные сети</t>
+  </si>
+  <si>
+    <t>Присутствуют хлебные крошки</t>
+  </si>
+  <si>
+    <t>Отсутствуют опечатки</t>
+  </si>
+  <si>
+    <t>Нет дублирующихся товаров</t>
+  </si>
+  <si>
+    <t>Легко найти нужный товар</t>
+  </si>
+  <si>
+    <t>Происходит оплата</t>
+  </si>
+  <si>
+    <t>Отсутствует функционал</t>
+  </si>
+  <si>
+    <t>Сортировка товаров</t>
+  </si>
+  <si>
+    <t>Поиск товара</t>
+  </si>
+  <si>
+    <t>Функционал не реализован</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> История заказов</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Редактирование профиля</t>
+  </si>
+  <si>
+    <t>Удаление профиля</t>
+  </si>
+  <si>
+    <t>Бонусная система</t>
   </si>
   <si>
     <r>
@@ -1614,103 +1689,114 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ///</t>
+      <t xml:space="preserve"> 9</t>
     </r>
   </si>
   <si>
-    <t>Чек лист магазина</t>
-  </si>
-  <si>
-    <t>Наличие кнопоки "Купить"</t>
-  </si>
-  <si>
-    <t>Наличие кнопоки "Заказать"</t>
-  </si>
-  <si>
-    <t>Добавление товар в корзину</t>
-  </si>
-  <si>
-    <t>Удаление товар из корзины</t>
-  </si>
-  <si>
-    <t>Проверка корзины</t>
-  </si>
-  <si>
-    <t>Каталог товаров</t>
-  </si>
-  <si>
-    <t>Личный кабинет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удаление товара из корзины </t>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>SOB-7</t>
+  </si>
+  <si>
+    <t>SOB-7.1</t>
+  </si>
+  <si>
+    <t>SOB-7.2</t>
+  </si>
+  <si>
+    <t>SOB-7.3</t>
+  </si>
+  <si>
+    <t>нефункциональные тесты</t>
+  </si>
+  <si>
+    <t>В правой части верхнего блока (под хедером) дублируется вывод статьи ("В конце релиза" выведена дважды)</t>
   </si>
   <si>
     <t>1. Открыть главную страницу нашего сайта.
 2. Навести курсор на пункт  "Магазин" на навигационном меню в хедере нашего сайта.
-3. Из выпадающего списка вбрать пункт "корзина".
+3. Из выпадающего списка выбрать пункт "корзина".
 4. В корзине выбирает товар который нужно удалить.
 5. Нажимаем на кнопку удалить (иконка в виде красного крестика).
 6. Во всплывающем окне подтверждаем удаление нажатием на кнопку "ДА".</t>
   </si>
   <si>
-    <t>Оформление заказа</t>
-  </si>
-  <si>
-    <t>После заказа приходит письмо на почту</t>
-  </si>
-  <si>
-    <t>Есть фильтры для поиска товаров</t>
-  </si>
-  <si>
-    <t>Есть форма обратной связи</t>
-  </si>
-  <si>
-    <t>Есть раздел с контактами</t>
-  </si>
-  <si>
-    <t>Есть ссылки на социальные сети</t>
-  </si>
-  <si>
-    <t>Присутствуют хлебные крошки</t>
-  </si>
-  <si>
-    <t>Отсутствуют опечатки</t>
-  </si>
-  <si>
-    <t>Нет дублирующихся товаров</t>
-  </si>
-  <si>
-    <t>Легко найти нужный товар</t>
-  </si>
-  <si>
-    <t>Происходит оплата</t>
-  </si>
-  <si>
-    <t>Отсутствует функционал</t>
-  </si>
-  <si>
-    <t>Сортировка товаров</t>
-  </si>
-  <si>
-    <t>Поиск товара</t>
-  </si>
-  <si>
-    <t>Функционал не реализован</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> История заказов</t>
-  </si>
-  <si>
-    <t>Авторизация</t>
-  </si>
-  <si>
-    <t>Редактирование профиля</t>
-  </si>
-  <si>
-    <t>Удаление профиля</t>
-  </si>
-  <si>
-    <t>Бонусная система</t>
+    <t>1. Открыть главную страницу нашего сайта.
+2. Навести курсор на пункт  "Магазин" на навигационном меню в хедере нашего сайта.
+3. Из выпадающего списка выбрать пункт "корзина".
+4. В корзине нажимаем на кнопку "Офомить заказ"</t>
+  </si>
+  <si>
+    <t>Проверка кнопки  "Оформить заказ" в корзине</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку "Оформить заказ" происходит перенаправление пользователя на страницу с формлением заказа</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие товара в корзине или выполнение тест кейса SOB-5.1    </t>
+  </si>
+  <si>
+    <t>1. Открыть стартовую страницу.
+3. Проверить внешний вид и удобство всех форм ,элементов, заголовков, шрифтов.</t>
+  </si>
+  <si>
+    <t>Проверка внешнего вида и удобства использования всех форм элементов, заголовков, шрифтов. на сайте</t>
+  </si>
+  <si>
+    <t>В правой части верхнего блока (под хедером) статья "Лайфхак..." без ссылки на саму статью</t>
+  </si>
+  <si>
+    <t>В блоке "Наш главный производитель",в слайдере (карусель с картинками), одна из них не отображается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на главную страницу сайта.
+2. Найти блок "Наш главный производитель"
+3. Пролистать </t>
+  </si>
+  <si>
+    <t>Прорверка центрального блока (под хедером) со статьями на нашем сайте</t>
+  </si>
+  <si>
+    <t>Проверка блока "Наш главный производитель", слайдер с картинками</t>
+  </si>
+  <si>
+    <t>Проверка блока со статьями "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>1. Блок "Блог Джесси со статьями и новостями" отображается корректно.
+2. Список статей и новостей загружается без проблем.
+3. Заголовок и описание каждой статьи или новости отображаются правильно.
+4. Ссылки на отдельные статьи или новости работают должным образом.</t>
+  </si>
+  <si>
+    <t>1. Зайти на главную страницу сайта.
+2. Найти блок "Блог Джесси со статьями и новостями".
+3. Проверить, что блок присутствует на странице.
+4. Проверить, что список статей и новостей загружается.
+5. Проверить корректность отображения заголовка и описания каждой статьи или новости.
+6. Проверить функциональность ссылок на отдельные статьи или новости.</t>
+  </si>
+  <si>
+    <t>1. Зайти на главную страницу сайта.
+2. Найти блок "Наш главный производитель".
+3. Проверить, что блок присутствует на странице.
+4. Проверить, что слайдер (карусель) загружается.
+5. Проверить отображение каждого слайда в слайдере.
+6. Проверить функциональность переключения между слайдами.</t>
+  </si>
+  <si>
+    <t>1. Блок "Наш главный производитель" отображается корректно.
+2. Слайдер загружается без проблем.
+3. Каждый слайд отображается правильно.
+4. Переключение между слайдами работает должным образом.</t>
+  </si>
+  <si>
+    <t>1. Внешний вид главной страницы сайта соответствует установленным дизайн-стандартам и ожидаемым требованиям.
+2. Все элементы интерфейса корректно отображаются.</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2485,9 +2571,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2546,8 +2629,32 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2606,17 +2713,41 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2624,53 +2755,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2961,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3054,20 +3156,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
     </row>
     <row r="4" spans="1:12" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -3080,7 +3182,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="48"/>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="152" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -3114,7 +3216,7 @@
         <v>220</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="145"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="47" t="s">
         <v>231</v>
       </c>
@@ -3146,7 +3248,7 @@
         <v>223</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="145"/>
+      <c r="E6" s="152"/>
       <c r="F6" s="47" t="s">
         <v>225</v>
       </c>
@@ -3178,7 +3280,7 @@
         <v>235</v>
       </c>
       <c r="D7" s="70"/>
-      <c r="E7" s="146"/>
+      <c r="E7" s="153"/>
       <c r="F7" s="71" t="s">
         <v>226</v>
       </c>
@@ -3202,20 +3304,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
     </row>
     <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
@@ -3228,7 +3330,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="77"/>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="155" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="76" t="s">
@@ -3260,7 +3362,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="48"/>
-      <c r="E10" s="145"/>
+      <c r="E10" s="152"/>
       <c r="F10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3290,7 +3392,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="145"/>
+      <c r="E11" s="152"/>
       <c r="F11" s="47" t="s">
         <v>44</v>
       </c>
@@ -3320,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="48"/>
-      <c r="E12" s="145"/>
+      <c r="E12" s="152"/>
       <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
@@ -3352,7 +3454,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="70"/>
-      <c r="E13" s="146"/>
+      <c r="E13" s="153"/>
       <c r="F13" s="71" t="s">
         <v>42</v>
       </c>
@@ -3376,20 +3478,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
     </row>
     <row r="15" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
@@ -3402,7 +3504,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="152" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="47" t="s">
@@ -3434,7 +3536,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="145"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="47" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3564,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="57"/>
-      <c r="E17" s="145"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="47" t="s">
         <v>27</v>
       </c>
@@ -3492,7 +3594,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="57"/>
-      <c r="E18" s="145"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="47" t="s">
         <v>47</v>
       </c>
@@ -3522,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="57"/>
-      <c r="E19" s="145"/>
+      <c r="E19" s="152"/>
       <c r="F19" s="47" t="s">
         <v>26</v>
       </c>
@@ -3552,7 +3654,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="57"/>
-      <c r="E20" s="145"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="47" t="s">
         <v>25</v>
       </c>
@@ -3582,7 +3684,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="57"/>
-      <c r="E21" s="145"/>
+      <c r="E21" s="152"/>
       <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3714,7 @@
         <v>194</v>
       </c>
       <c r="D22" s="51"/>
-      <c r="E22" s="145"/>
+      <c r="E22" s="152"/>
       <c r="F22" s="47" t="s">
         <v>196</v>
       </c>
@@ -3638,7 +3740,7 @@
         <v>197</v>
       </c>
       <c r="D23" s="89"/>
-      <c r="E23" s="146"/>
+      <c r="E23" s="153"/>
       <c r="F23" s="71" t="s">
         <v>199</v>
       </c>
@@ -3656,20 +3758,20 @@
       <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
     </row>
     <row r="25" spans="1:12" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
@@ -3708,20 +3810,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
     </row>
     <row r="27" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
@@ -4014,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4267B-AAC9-4874-B092-D024FCD39A14}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4073,20 +4175,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="165" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4123,20 +4225,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
@@ -4175,36 +4277,36 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
@@ -4243,20 +4345,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="166" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="168"/>
     </row>
     <row r="10" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
@@ -4269,7 +4371,7 @@
         <v>236</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="124" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="47" t="s">
@@ -4300,7 +4402,7 @@
         <v>237</v>
       </c>
       <c r="D11" s="118"/>
-      <c r="E11" s="125"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="71" t="s">
         <v>317</v>
       </c>
@@ -4330,7 +4432,7 @@
         <v>309</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="125"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="65" t="s">
         <v>324</v>
       </c>
@@ -4357,11 +4459,11 @@
         <v>238</v>
       </c>
       <c r="D13" s="77"/>
-      <c r="E13" s="125"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="122" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="78" t="s">
@@ -4387,7 +4489,7 @@
         <v>282</v>
       </c>
       <c r="D14" s="57"/>
-      <c r="E14" s="125"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="47" t="s">
         <v>330</v>
       </c>
@@ -4400,7 +4502,7 @@
       <c r="I14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="122" t="s">
+      <c r="J14" s="121" t="s">
         <v>321</v>
       </c>
       <c r="K14" s="52" t="s">
@@ -4418,7 +4520,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="57"/>
-      <c r="E15" s="125"/>
+      <c r="E15" s="124"/>
       <c r="F15" s="47" t="s">
         <v>322</v>
       </c>
@@ -4447,7 +4549,7 @@
         <v>285</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="125"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="47" t="s">
         <v>323</v>
       </c>
@@ -4477,7 +4579,7 @@
         <v>284</v>
       </c>
       <c r="D17" s="51"/>
-      <c r="E17" s="125"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="47" t="s">
         <v>319</v>
       </c>
@@ -4506,7 +4608,7 @@
         <v>286</v>
       </c>
       <c r="D18" s="89"/>
-      <c r="E18" s="125"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="71" t="s">
         <v>318</v>
       </c>
@@ -4528,23 +4630,23 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="159" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
     </row>
     <row r="20" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -4558,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G20" s="108" t="s">
         <v>51</v>
@@ -4569,8 +4671,8 @@
       <c r="I20" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="135" t="s">
-        <v>358</v>
+      <c r="J20" s="134" t="s">
+        <v>383</v>
       </c>
       <c r="K20" s="52" t="s">
         <v>54</v>
@@ -4588,11 +4690,11 @@
         <v>307</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="138" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G21" s="108" t="s">
         <v>306</v>
@@ -4619,7 +4721,7 @@
         <v>305</v>
       </c>
       <c r="D22" s="48"/>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="138" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="47" t="s">
@@ -4648,13 +4750,13 @@
         <v>327</v>
       </c>
       <c r="D23" s="51"/>
-      <c r="E23" s="139" t="s">
+      <c r="E23" s="138" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="123" t="s">
         <v>332</v>
       </c>
       <c r="H23" s="65" t="s">
@@ -4673,23 +4775,23 @@
     </row>
     <row r="24" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D24" s="51"/>
-      <c r="E24" s="139" t="s">
+      <c r="E24" s="138" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="G24" s="124" t="s">
         <v>347</v>
       </c>
+      <c r="G24" s="123" t="s">
+        <v>346</v>
+      </c>
       <c r="H24" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>52</v>
@@ -4704,20 +4806,20 @@
     </row>
     <row r="25" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="65" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25" s="124" t="s">
-        <v>342</v>
+      <c r="G25" s="123" t="s">
+        <v>341</v>
       </c>
       <c r="H25" s="50" t="s">
         <v>101</v>
@@ -4733,41 +4835,23 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-    </row>
+    <row r="26" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="1:12" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -4777,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>70</v>
+        <v>395</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="108" t="s">
@@ -4808,16 +4892,16 @@
         <v>75</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="108" t="s">
-        <v>341</v>
+        <v>362</v>
+      </c>
+      <c r="D30" s="141" t="s">
+        <v>396</v>
       </c>
       <c r="E30" s="108" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>69</v>
@@ -4844,13 +4928,13 @@
         <v>295</v>
       </c>
       <c r="D31" s="70"/>
-      <c r="E31" s="126" t="s">
+      <c r="E31" s="125" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="126" t="s">
+      <c r="G31" s="125" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="73" t="s">
@@ -4863,7 +4947,7 @@
       <c r="K31" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="127">
+      <c r="L31" s="126">
         <v>45274</v>
       </c>
     </row>
@@ -4871,18 +4955,30 @@
       <c r="B32" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="142" t="s">
-        <v>369</v>
-      </c>
-      <c r="D32" s="51"/>
+      <c r="C32" s="115" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="141" t="s">
+        <v>396</v>
+      </c>
       <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="F32" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="H32" s="115" t="s">
+        <v>394</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>2</v>
+      </c>
       <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
+      <c r="K32" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="126">
+        <v>45274</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="51"/>
@@ -4898,50 +4994,50 @@
       <c r="L33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="159" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="161"/>
     </row>
     <row r="35" spans="1:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="129" t="s">
+      <c r="C35" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="D35" s="130"/>
-      <c r="E35" s="140" t="s">
+      <c r="D35" s="129"/>
+      <c r="E35" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="131" t="s">
+      <c r="F35" s="130" t="s">
         <v>301</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="132" t="s">
+      <c r="G35" s="129"/>
+      <c r="H35" s="131" t="s">
         <v>335</v>
       </c>
       <c r="I35" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="130"/>
-      <c r="K35" s="133" t="s">
+      <c r="J35" s="129"/>
+      <c r="K35" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="134">
+      <c r="L35" s="133">
         <v>45275</v>
       </c>
     </row>
@@ -4953,7 +5049,7 @@
         <v>299</v>
       </c>
       <c r="D36" s="51"/>
-      <c r="E36" s="140"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="65" t="s">
         <v>312</v>
       </c>
@@ -4974,13 +5070,13 @@
     </row>
     <row r="37" spans="1:12" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="29" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C37" s="65" t="s">
         <v>302</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="140"/>
+      <c r="E37" s="139"/>
       <c r="F37" s="65" t="s">
         <v>313</v>
       </c>
@@ -5001,7 +5097,7 @@
     </row>
     <row r="38" spans="1:12" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="29" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -5018,121 +5114,205 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="86"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="109" t="s">
+    <row r="39" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="183" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+    </row>
+    <row r="40" spans="1:12" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="127" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+    </row>
+    <row r="41" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="127" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="G41" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="121" t="s">
-        <v>315</v>
-      </c>
-      <c r="I39" s="74" t="s">
+      <c r="H41" s="189" t="s">
+        <v>408</v>
+      </c>
+      <c r="I41" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="90" t="s">
+      <c r="J41" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="K39" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="75">
-        <v>45275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="151"/>
-    </row>
-    <row r="41" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="48"/>
       <c r="K41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="75">
+      <c r="L41" s="56">
         <v>45275</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C42" s="184" t="s">
+        <v>404</v>
+      </c>
+      <c r="D42" s="185"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="189" t="s">
+        <v>406</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+    </row>
+    <row r="43" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="156" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="158"/>
+    </row>
+    <row r="44" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="115" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="188" t="s">
+        <v>409</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C45" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="48"/>
+      <c r="K45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="75">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="108" t="s">
+      <c r="D46" s="48"/>
+      <c r="E46" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F46" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="50" t="s">
+      <c r="G46" s="48"/>
+      <c r="H46" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="29" t="s">
+      <c r="I46" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="48"/>
+      <c r="K46" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="75">
+      <c r="L46" s="75">
         <v>45275</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="96.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:12" ht="82.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A40:L40"/>
+  <mergeCells count="10">
+    <mergeCell ref="A43:L43"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A7:L7"/>
@@ -5141,6 +5321,7 @@
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A39:L39"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5153,8 +5334,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5180,26 +5361,26 @@
       <c r="D1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="179" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
+      <c r="H1" s="172" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="H2" s="137" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="H2" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="136" t="s">
         <v>104</v>
       </c>
       <c r="X2" s="3"/>
@@ -5212,11 +5393,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="H3" s="178" t="s">
-        <v>364</v>
-      </c>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="H3" s="175" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="2:24" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5227,13 +5408,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="H4" s="173" t="s">
-        <v>360</v>
-      </c>
-      <c r="I4" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="176"/>
+      <c r="H4" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="149"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5244,13 +5425,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="H5" s="172" t="s">
-        <v>361</v>
-      </c>
-      <c r="I5" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="174"/>
+      <c r="H5" s="145" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="147"/>
     </row>
     <row r="6" spans="2:24" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
@@ -5260,13 +5441,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="H6" s="170" t="s">
-        <v>362</v>
-      </c>
-      <c r="I6" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="174"/>
+      <c r="H6" s="143" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="147"/>
     </row>
     <row r="7" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -5276,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="H7" s="171" t="s">
-        <v>363</v>
-      </c>
-      <c r="I7" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="175"/>
+      <c r="H7" s="144" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
@@ -5292,14 +5473,14 @@
         <v>22</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="H8" s="171" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="141" t="s">
+      <c r="H8" s="144" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="175" t="s">
-        <v>380</v>
+      <c r="J8" s="148" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5312,13 +5493,13 @@
       <c r="D9" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="172" t="s">
-        <v>369</v>
+      <c r="H9" s="145" t="s">
+        <v>363</v>
       </c>
       <c r="I9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="174"/>
+      <c r="J9" s="147"/>
     </row>
     <row r="10" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -5330,11 +5511,11 @@
       <c r="D10" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="177" t="s">
-        <v>365</v>
-      </c>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
+      <c r="H10" s="176" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
     </row>
     <row r="11" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
@@ -5346,14 +5527,14 @@
       <c r="D11" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="172" t="s">
-        <v>382</v>
+      <c r="H11" s="145" t="s">
+        <v>376</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="174" t="s">
-        <v>383</v>
+      <c r="J11" s="147" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5364,14 +5545,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="H12" s="170" t="s">
-        <v>375</v>
+      <c r="H12" s="143" t="s">
+        <v>369</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="174" t="s">
-        <v>383</v>
+      <c r="J12" s="147" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5382,27 +5563,27 @@
         <v>2</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="H13" s="170" t="s">
-        <v>371</v>
+      <c r="H13" s="143" t="s">
+        <v>365</v>
       </c>
       <c r="I13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="174"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="2:24" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="H14" s="172" t="s">
-        <v>381</v>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="H14" s="145" t="s">
+        <v>375</v>
       </c>
       <c r="I14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="174"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -5412,13 +5593,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="H15" s="172" t="s">
+      <c r="H15" s="145" t="s">
         <v>302</v>
       </c>
       <c r="I15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="174"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
@@ -5428,13 +5609,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="H16" s="170" t="s">
-        <v>370</v>
+      <c r="H16" s="143" t="s">
+        <v>364</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="174"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
@@ -5446,13 +5627,13 @@
       <c r="D17" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="170" t="s">
-        <v>377</v>
+      <c r="H17" s="143" t="s">
+        <v>371</v>
       </c>
       <c r="I17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="174"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
@@ -5464,13 +5645,13 @@
       <c r="D18" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="170" t="s">
-        <v>378</v>
+      <c r="H18" s="143" t="s">
+        <v>372</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="174"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
@@ -5482,11 +5663,11 @@
       <c r="D19" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="H19" s="177" t="s">
-        <v>366</v>
-      </c>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
+      <c r="H19" s="176" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
@@ -5497,26 +5678,26 @@
       </c>
       <c r="D20" s="33"/>
       <c r="H20" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="I20" s="180" t="s">
+        <v>379</v>
+      </c>
+      <c r="I20" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="181" t="s">
-        <v>383</v>
+      <c r="J20" s="178" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
       <c r="H21" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="I21" s="180"/>
-      <c r="J21" s="182"/>
+        <v>380</v>
+      </c>
+      <c r="I21" s="177"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
@@ -5529,10 +5710,10 @@
         <v>233</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="I22" s="180"/>
-      <c r="J22" s="182"/>
+        <v>381</v>
+      </c>
+      <c r="I22" s="177"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
@@ -5545,10 +5726,10 @@
         <v>260</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="I23" s="180"/>
-      <c r="J23" s="182"/>
+        <v>378</v>
+      </c>
+      <c r="I23" s="177"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5564,10 +5745,10 @@
         <v>207</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="I24" s="180"/>
-      <c r="J24" s="183"/>
+        <v>382</v>
+      </c>
+      <c r="I24" s="177"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
@@ -5577,11 +5758,15 @@
         <v>2</v>
       </c>
       <c r="D25" s="38"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="143" t="s">
+        <v>366</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="147"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="B26" s="33" t="s">
         <v>208</v>
@@ -5592,30 +5777,30 @@
       <c r="D26" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="H26" s="170" t="s">
-        <v>372</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="174"/>
+      <c r="H26" s="146" t="s">
+        <v>367</v>
+      </c>
+      <c r="I26" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="149"/>
     </row>
     <row r="27" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="H27" s="173" t="s">
-        <v>373</v>
-      </c>
-      <c r="I27" s="169" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="176"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="H27" s="143" t="s">
+        <v>368</v>
+      </c>
+      <c r="I27" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="147"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="34" t="s">
         <v>118</v>
@@ -5624,13 +5809,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="38"/>
-      <c r="H28" s="170" t="s">
-        <v>374</v>
-      </c>
-      <c r="I28" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="174"/>
+      <c r="H28" s="143" t="s">
+        <v>370</v>
+      </c>
+      <c r="I28" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
@@ -5640,13 +5825,6 @@
         <v>2</v>
       </c>
       <c r="D29" s="38"/>
-      <c r="H29" s="170" t="s">
-        <v>376</v>
-      </c>
-      <c r="I29" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
@@ -5678,12 +5856,12 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="H33" s="138"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="H33" s="137"/>
     </row>
     <row r="34" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
@@ -5693,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="32"/>
-      <c r="H34" s="138"/>
+      <c r="H34" s="137"/>
     </row>
     <row r="35" spans="2:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
@@ -5703,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="H35" s="138"/>
+      <c r="H35" s="137"/>
     </row>
     <row r="36" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
@@ -5713,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="32"/>
-      <c r="H36" s="138"/>
+      <c r="H36" s="137"/>
     </row>
     <row r="37" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="33" t="s">
@@ -5723,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="33"/>
-      <c r="H37" s="138"/>
+      <c r="H37" s="137"/>
     </row>
     <row r="38" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37" t="s">
@@ -5746,18 +5924,18 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
     </row>
     <row r="41" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
     </row>
     <row r="42" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
@@ -5769,11 +5947,11 @@
       <c r="D42" s="38"/>
     </row>
     <row r="43" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="174"/>
     </row>
     <row r="44" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="39" t="s">
@@ -5975,11 +6153,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -5989,6 +6162,11 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="J20:J24"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5998,10 +6176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B62FF2-D363-46F5-AB94-D5D2B9D503BB}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6054,19 +6232,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -6161,19 +6339,19 @@
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
     </row>
     <row r="9" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -6296,17 +6474,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
     </row>
     <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -6401,7 +6579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>291</v>
       </c>
@@ -6430,6 +6608,70 @@
       </c>
       <c r="K17" s="19" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="127" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="127" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="186" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="187" t="s">
+        <v>315</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="56">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="127" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="184" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="185"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="189" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C72BA4-332D-4396-B9B7-A64A0D2A5697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B508C-175D-4219-8704-FC1E89CCFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест кейс (с техн.тест дизайна)" sheetId="4" r:id="rId1"/>
@@ -2426,6 +2426,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2462,36 +2507,6 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2530,21 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2836,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4267B-AAC9-4874-B092-D024FCD39A14}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J22" sqref="J22:J27"/>
     </sheetView>
   </sheetViews>
@@ -2895,20 +2895,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -2945,20 +2945,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="155"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -2997,36 +2997,36 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
     </row>
     <row r="8" spans="1:12" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
@@ -3065,20 +3065,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="145" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="155"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="147"/>
     </row>
     <row r="10" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
@@ -3091,7 +3091,7 @@
         <v>154</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="147" t="s">
+      <c r="E10" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="34" t="s">
@@ -3122,7 +3122,7 @@
         <v>155</v>
       </c>
       <c r="D11" s="75"/>
-      <c r="E11" s="148"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="51" t="s">
         <v>216</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>210</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="148"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="46" t="s">
         <v>222</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>156</v>
       </c>
       <c r="D13" s="55"/>
-      <c r="E13" s="148"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="54" t="s">
         <v>223</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>188</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="148"/>
+      <c r="E14" s="137"/>
       <c r="F14" s="34" t="s">
         <v>226</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>189</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="148"/>
+      <c r="E15" s="137"/>
       <c r="F15" s="34" t="s">
         <v>220</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>190</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="148"/>
+      <c r="E16" s="137"/>
       <c r="F16" s="34" t="s">
         <v>221</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>296</v>
       </c>
       <c r="D17" s="38"/>
-      <c r="E17" s="148"/>
+      <c r="E17" s="137"/>
       <c r="F17" s="34" t="s">
         <v>297</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>191</v>
       </c>
       <c r="D18" s="59"/>
-      <c r="E18" s="149"/>
+      <c r="E18" s="138"/>
       <c r="F18" s="51" t="s">
         <v>217</v>
       </c>
@@ -3350,20 +3350,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="136"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
@@ -3402,20 +3402,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="151"/>
     </row>
     <row r="22" spans="1:12" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -3428,7 +3428,7 @@
         <v>207</v>
       </c>
       <c r="D22" s="35"/>
-      <c r="E22" s="147" t="s">
+      <c r="E22" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="34" t="s">
@@ -3443,7 +3443,7 @@
       <c r="I22" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="171" t="s">
+      <c r="J22" s="139" t="s">
         <v>327</v>
       </c>
       <c r="K22" s="39" t="s">
@@ -3462,7 +3462,7 @@
         <v>209</v>
       </c>
       <c r="D23" s="35"/>
-      <c r="E23" s="148"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="34" t="s">
         <v>242</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="I23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="172"/>
+      <c r="J23" s="140"/>
       <c r="K23" s="39" t="s">
         <v>25</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>298</v>
       </c>
       <c r="D24" s="35"/>
-      <c r="E24" s="148"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="34" t="s">
         <v>299</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="I24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="172"/>
+      <c r="J24" s="140"/>
       <c r="K24" s="39" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>224</v>
       </c>
       <c r="D25" s="38"/>
-      <c r="E25" s="148"/>
+      <c r="E25" s="137"/>
       <c r="F25" s="46" t="s">
         <v>227</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="I25" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="172"/>
+      <c r="J25" s="140"/>
       <c r="K25" s="39" t="s">
         <v>25</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>237</v>
       </c>
       <c r="D26" s="38"/>
-      <c r="E26" s="148"/>
+      <c r="E26" s="137"/>
       <c r="F26" s="46" t="s">
         <v>241</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="I26" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="172"/>
+      <c r="J26" s="140"/>
       <c r="K26" s="39" t="s">
         <v>25</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>238</v>
       </c>
       <c r="D27" s="38"/>
-      <c r="E27" s="149"/>
+      <c r="E27" s="138"/>
       <c r="F27" s="46" t="s">
         <v>239</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="I27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="173"/>
+      <c r="J27" s="141"/>
       <c r="K27" s="39" t="s">
         <v>25</v>
       </c>
@@ -3598,20 +3598,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
     </row>
     <row r="29" spans="1:12" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
@@ -3624,13 +3624,13 @@
         <v>281</v>
       </c>
       <c r="D29" s="35"/>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="G29" s="136" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="37" t="s">
@@ -3657,11 +3657,11 @@
       <c r="D30" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="E30" s="148"/>
+      <c r="E30" s="137"/>
       <c r="F30" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="G30" s="148"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="37" t="s">
         <v>56</v>
       </c>
@@ -3684,11 +3684,11 @@
         <v>200</v>
       </c>
       <c r="D31" s="50"/>
-      <c r="E31" s="148"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="G31" s="148"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="52" t="s">
         <v>201</v>
       </c>
@@ -3713,11 +3713,11 @@
       <c r="D32" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="149"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="G32" s="149"/>
+      <c r="G32" s="138"/>
       <c r="H32" s="72" t="s">
         <v>307</v>
       </c>
@@ -3733,20 +3733,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="151"/>
     </row>
     <row r="34" spans="1:12" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="82" t="s">
@@ -3759,13 +3759,13 @@
         <v>202</v>
       </c>
       <c r="D34" s="84"/>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="G34" s="147" t="s">
+      <c r="G34" s="136" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="86" t="s">
@@ -3790,11 +3790,11 @@
         <v>203</v>
       </c>
       <c r="D35" s="38"/>
-      <c r="E35" s="148"/>
+      <c r="E35" s="137"/>
       <c r="F35" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="G35" s="148"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="46" t="s">
         <v>308</v>
       </c>
@@ -3817,11 +3817,11 @@
         <v>206</v>
       </c>
       <c r="D36" s="59"/>
-      <c r="E36" s="149"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="149"/>
+      <c r="G36" s="138"/>
       <c r="H36" s="110" t="s">
         <v>309</v>
       </c>
@@ -3837,20 +3837,20 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="142"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="157"/>
     </row>
     <row r="38" spans="1:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="82" t="s">
@@ -3863,13 +3863,13 @@
         <v>304</v>
       </c>
       <c r="D38" s="84"/>
-      <c r="E38" s="147" t="s">
+      <c r="E38" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="G38" s="147" t="s">
+      <c r="G38" s="136" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="85" t="s">
@@ -3896,11 +3896,11 @@
         <v>292</v>
       </c>
       <c r="D39" s="38"/>
-      <c r="E39" s="148"/>
+      <c r="E39" s="137"/>
       <c r="F39" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="G39" s="148"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="107" t="s">
         <v>289</v>
       </c>
@@ -3925,11 +3925,11 @@
         <v>285</v>
       </c>
       <c r="D40" s="104"/>
-      <c r="E40" s="149"/>
+      <c r="E40" s="138"/>
       <c r="F40" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="149"/>
+      <c r="G40" s="138"/>
       <c r="H40" s="46" t="s">
         <v>286</v>
       </c>
@@ -3945,20 +3945,20 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="145"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="160"/>
     </row>
     <row r="42" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
@@ -3977,7 +3977,7 @@
       <c r="F42" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="G42" s="146" t="s">
+      <c r="G42" s="148" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="46" t="s">
@@ -4010,7 +4010,7 @@
       <c r="F43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="146"/>
+      <c r="G43" s="148"/>
       <c r="H43" s="37" t="s">
         <v>40</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="F44" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="146"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="37" t="s">
         <v>43</v>
       </c>
@@ -4059,6 +4059,17 @@
     <row r="49" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="G34:G36"/>
     <mergeCell ref="E10:E18"/>
     <mergeCell ref="J22:J27"/>
     <mergeCell ref="A7:L7"/>
@@ -4066,18 +4077,7 @@
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="G34:G36"/>
     <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="E29:E32"/>
     <mergeCell ref="E22:E27"/>
     <mergeCell ref="A21:L21"/>
   </mergeCells>
@@ -4119,19 +4119,19 @@
       <c r="D1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="156" t="s">
+      <c r="H1" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="2:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
       <c r="H2" s="90" t="s">
         <v>57</v>
       </c>
@@ -4151,11 +4151,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="164" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="2:24" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4269,11 +4269,11 @@
       <c r="D10" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="160" t="s">
+      <c r="H10" s="165" t="s">
         <v>251</v>
       </c>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
@@ -4330,11 +4330,11 @@
       <c r="J13" s="99"/>
     </row>
     <row r="14" spans="2:24" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="H14" s="97" t="s">
         <v>266</v>
       </c>
@@ -4421,11 +4421,11 @@
       <c r="D19" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
@@ -4438,24 +4438,24 @@
       <c r="H20" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="161" t="s">
+      <c r="I20" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="162" t="s">
+      <c r="J20" s="167" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
       <c r="H21" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="161"/>
-      <c r="J21" s="163"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
@@ -4470,8 +4470,8 @@
       <c r="H22" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="I22" s="161"/>
-      <c r="J22" s="163"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
@@ -4486,8 +4486,8 @@
       <c r="H23" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="161"/>
-      <c r="J23" s="163"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="168"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4505,8 +4505,8 @@
       <c r="H24" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="I24" s="161"/>
-      <c r="J24" s="164"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="169"/>
     </row>
     <row r="25" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
@@ -4545,11 +4545,11 @@
     </row>
     <row r="27" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
       <c r="H27" s="95" t="s">
         <v>259</v>
       </c>
@@ -4616,11 +4616,11 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="170" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
       <c r="H33" s="91"/>
     </row>
     <row r="34" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4684,18 +4684,18 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="157" t="s">
+      <c r="B40" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
     </row>
     <row r="41" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
     </row>
     <row r="42" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
@@ -4707,11 +4707,11 @@
       <c r="D42" s="27"/>
     </row>
     <row r="43" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
     </row>
     <row r="44" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="28" t="s">
@@ -4938,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B62FF2-D363-46F5-AB94-D5D2B9D503BB}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4993,19 +4993,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
     </row>
     <row r="3" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="116" t="s">
@@ -5101,19 +5101,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
     </row>
     <row r="7" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="116" t="s">
@@ -5240,19 +5240,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116" t="s">
@@ -5286,19 +5286,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
     </row>
     <row r="14" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
@@ -5334,19 +5334,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="143" t="s">
         <v>346</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
     </row>
     <row r="16" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
@@ -5365,7 +5365,7 @@
       <c r="F16" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="170" t="s">
+      <c r="G16" s="135" t="s">
         <v>356</v>
       </c>
       <c r="H16" s="129" t="s">
@@ -5398,7 +5398,7 @@
       <c r="F17" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="134" t="s">
         <v>357</v>
       </c>
       <c r="H17" s="119" t="s">
@@ -5415,19 +5415,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="149" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
     </row>
     <row r="19" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116" t="s">
@@ -5477,7 +5477,7 @@
       <c r="F20" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="134" t="s">
         <v>358</v>
       </c>
       <c r="H20" s="119" t="s">
@@ -5510,7 +5510,7 @@
       <c r="F21" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="G21" s="169" t="s">
+      <c r="G21" s="134" t="s">
         <v>355</v>
       </c>
       <c r="H21" s="119" t="s">
@@ -5527,19 +5527,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
     </row>
     <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="116" t="s">

--- a/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
+++ b/Testing/SBS (guru.qahacking.ru)/Manual_testing_(Documentation)/sbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\SBS (guru.qahacking.ru)\Manual_testing_(Documentation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B508C-175D-4219-8704-FC1E89CCFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3AAFF1-B498-4F66-B5C9-BD2C2906256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест кейс (с техн.тест дизайна)" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="376">
   <si>
     <t>SOB-1</t>
   </si>
@@ -793,11 +793,6 @@
     <t>Главная страница сайта открывается без ошибок.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Откройте главную страницу сайта.
-2. В навигационном меню сайта кликаем по каждому разделу ("О нас", "Блог Джесси", "Магазин", "Советы" , "Статьи") по очереди.
-</t>
-  </si>
-  <si>
     <t>BG -11</t>
   </si>
   <si>
@@ -1601,6 +1596,62 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/GyaJqjde2ToRpw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открытьглавную страницу сайта.
+2. В навигационном меню сайта кликаем по каждому разделу ("О нас", "Блог Джесси", "Магазин", "Советы" , "Статьи") по очереди.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поле ввода мобильного телефона </t>
+  </si>
+  <si>
+    <t>Пустое поле</t>
+  </si>
+  <si>
+    <t>Невалидный номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валлидный номер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наобязательномть </t>
+  </si>
+  <si>
+    <t>Ввод текста</t>
+  </si>
+  <si>
+    <t>Ввод кирилицы</t>
+  </si>
+  <si>
+    <t>Ввод латиницы</t>
+  </si>
+  <si>
+    <t>Спец символы + и -</t>
+  </si>
+  <si>
+    <t>Ввод тегов</t>
+  </si>
+  <si>
+    <t>Буфер обмена</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ввлд  спец символов @</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Мин и мак кол-во символов</t>
+  </si>
+  <si>
+    <t>Валидация "сложность пароля"</t>
+  </si>
+  <si>
+    <t>Ввод тегов и спец символов</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2468,18 +2519,18 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2546,6 +2597,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2836,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D4267B-AAC9-4874-B092-D024FCD39A14}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2896,7 +2951,7 @@
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
@@ -2928,7 +2983,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>158</v>
@@ -2975,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K5" s="58" t="s">
         <v>25</v>
@@ -3014,7 +3069,7 @@
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="142"/>
       <c r="C7" s="143"/>
@@ -3043,19 +3098,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>25</v>
@@ -3066,7 +3121,7 @@
     </row>
     <row r="9" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="146"/>
       <c r="C9" s="146"/>
@@ -3095,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="67" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>2</v>
@@ -3124,7 +3179,7 @@
       <c r="D11" s="75"/>
       <c r="E11" s="137"/>
       <c r="F11" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>6</v>
@@ -3149,16 +3204,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="137"/>
       <c r="F12" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>2</v>
@@ -3181,7 +3236,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="137"/>
       <c r="F13" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="79" t="s">
         <v>19</v>
@@ -3206,12 +3261,12 @@
         <v>60</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="137"/>
       <c r="F14" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>7</v>
@@ -3223,7 +3278,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>25</v>
@@ -3237,12 +3292,12 @@
         <v>146</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="137"/>
       <c r="F15" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>8</v>
@@ -3266,12 +3321,12 @@
         <v>147</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="137"/>
       <c r="F16" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>3</v>
@@ -3296,18 +3351,18 @@
         <v>148</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="137"/>
       <c r="F17" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>2</v>
@@ -3325,12 +3380,12 @@
         <v>149</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="138"/>
       <c r="F18" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>135</v>
@@ -3350,20 +3405,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="149" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
+      <c r="A19" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="150"/>
     </row>
     <row r="20" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
@@ -3373,14 +3428,14 @@
         <v>32</v>
       </c>
       <c r="C20" s="130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="93" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G20" s="93" t="s">
         <v>34</v>
@@ -3392,7 +3447,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K20" s="74" t="s">
         <v>25</v>
@@ -3402,20 +3457,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="149" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="151"/>
+      <c r="A21" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="150"/>
     </row>
     <row r="22" spans="1:12" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -3425,26 +3480,26 @@
         <v>37</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G22" s="93" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>25</v>
@@ -3459,18 +3514,18 @@
         <v>38</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="137"/>
       <c r="F23" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>23</v>
@@ -3488,16 +3543,16 @@
         <v>61</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="137"/>
       <c r="F24" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G24" s="93"/>
       <c r="H24" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>23</v>
@@ -3515,18 +3570,18 @@
         <v>62</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="137"/>
       <c r="F25" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="H25" s="46" t="s">
         <v>228</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>229</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>23</v>
@@ -3544,18 +3599,18 @@
         <v>132</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="137"/>
       <c r="F26" s="46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G26" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I26" s="31" t="s">
         <v>23</v>
@@ -3570,21 +3625,21 @@
     </row>
     <row r="27" spans="1:12" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="138"/>
       <c r="F27" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>23</v>
@@ -3621,14 +3676,14 @@
         <v>37</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G29" s="136" t="s">
         <v>34</v>
@@ -3652,14 +3707,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="137"/>
       <c r="F30" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="137"/>
       <c r="H30" s="37" t="s">
@@ -3681,16 +3736,16 @@
         <v>61</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="137"/>
       <c r="F31" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G31" s="137"/>
       <c r="H31" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I31" s="62" t="s">
         <v>2</v>
@@ -3708,18 +3763,18 @@
         <v>62</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="138"/>
       <c r="F32" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G32" s="138"/>
       <c r="H32" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I32" s="62" t="s">
         <v>2</v>
@@ -3733,20 +3788,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
+      <c r="A33" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="150"/>
     </row>
     <row r="34" spans="1:12" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="82" t="s">
@@ -3756,20 +3811,20 @@
         <v>64</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="84"/>
       <c r="E34" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" s="136" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I34" s="57" t="s">
         <v>2</v>
@@ -3787,16 +3842,16 @@
         <v>65</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="137"/>
       <c r="F35" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G35" s="137"/>
       <c r="H35" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I35" s="33" t="s">
         <v>2</v>
@@ -3811,19 +3866,19 @@
     </row>
     <row r="36" spans="1:12" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="59"/>
       <c r="E36" s="138"/>
       <c r="F36" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="138"/>
       <c r="H36" s="110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I36" s="62" t="s">
         <v>2</v>
@@ -3838,7 +3893,7 @@
     </row>
     <row r="37" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="155" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -3854,32 +3909,32 @@
     </row>
     <row r="38" spans="1:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="136" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I38" s="111" t="s">
         <v>16</v>
       </c>
       <c r="J38" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="82" t="s">
         <v>25</v>
@@ -3890,25 +3945,25 @@
     </row>
     <row r="39" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="137"/>
       <c r="F39" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G39" s="137"/>
       <c r="H39" s="107" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I39" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>25</v>
@@ -3919,19 +3974,19 @@
     </row>
     <row r="40" spans="1:12" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="138"/>
       <c r="F40" s="107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G40" s="138"/>
       <c r="H40" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I40" s="33" t="s">
         <v>2</v>
@@ -3946,7 +4001,7 @@
     </row>
     <row r="41" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" s="159"/>
       <c r="C41" s="159"/>
@@ -3962,32 +4017,32 @@
     </row>
     <row r="42" spans="1:12" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="93" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="G42" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="151" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I42" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>25</v>
@@ -3998,7 +4053,7 @@
     </row>
     <row r="43" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>39</v>
@@ -4010,7 +4065,7 @@
       <c r="F43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="148"/>
+      <c r="G43" s="151"/>
       <c r="H43" s="37" t="s">
         <v>40</v>
       </c>
@@ -4027,19 +4082,19 @@
     </row>
     <row r="44" spans="1:12" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="148"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="37" t="s">
         <v>43</v>
       </c>
@@ -4092,8 +4147,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,6 +4162,7 @@
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.21875" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="15" max="15" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4120,7 +4176,7 @@
         <v>59</v>
       </c>
       <c r="H1" s="161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I1" s="161"/>
       <c r="J1" s="161"/>
@@ -4141,6 +4197,9 @@
       <c r="J2" s="90" t="s">
         <v>59</v>
       </c>
+      <c r="O2" s="174" t="s">
+        <v>359</v>
+      </c>
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="2:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4152,10 +4211,13 @@
       </c>
       <c r="D3" s="9"/>
       <c r="H3" s="164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I3" s="164"/>
       <c r="J3" s="164"/>
+      <c r="O3" t="s">
+        <v>362</v>
+      </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="2:24" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4167,12 +4229,15 @@
       </c>
       <c r="D4" s="9"/>
       <c r="H4" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I4" s="94" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="101"/>
+      <c r="O4" t="s">
+        <v>361</v>
+      </c>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4184,12 +4249,15 @@
       </c>
       <c r="D5" s="9"/>
       <c r="H5" s="97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" s="89" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="99"/>
+      <c r="O5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="6" spans="2:24" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -4200,12 +4268,15 @@
       </c>
       <c r="D6" s="9"/>
       <c r="H6" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" s="89" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="99"/>
+      <c r="O6" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="7" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
@@ -4216,12 +4287,15 @@
       </c>
       <c r="D7" s="9"/>
       <c r="H7" s="96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="100"/>
+      <c r="O7" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="8" spans="2:24" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
@@ -4232,13 +4306,16 @@
       </c>
       <c r="D8" s="9"/>
       <c r="H8" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I8" s="92" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="100" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="O8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4249,15 +4326,18 @@
         <v>16</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H9" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="99"/>
+      <c r="O9" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="10" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
@@ -4267,13 +4347,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I10" s="165"/>
       <c r="J10" s="165"/>
+      <c r="O10" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="11" spans="2:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
@@ -4283,16 +4366,19 @@
         <v>16</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H11" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="O11" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4304,13 +4390,16 @@
       </c>
       <c r="D12" s="63"/>
       <c r="H12" s="95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="O12" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4322,7 +4411,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="H13" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>2</v>
@@ -4336,12 +4425,15 @@
       <c r="C14" s="170"/>
       <c r="D14" s="170"/>
       <c r="H14" s="97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="99"/>
+      <c r="O14" s="175" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="15" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
@@ -4352,12 +4444,15 @@
       </c>
       <c r="D15" s="22"/>
       <c r="H15" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="99"/>
+      <c r="O15" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="16" spans="2:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
@@ -4368,14 +4463,17 @@
       </c>
       <c r="D16" s="22"/>
       <c r="H16" s="95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>104</v>
       </c>
@@ -4383,17 +4481,17 @@
         <v>16</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="99"/>
     </row>
-    <row r="18" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>68</v>
       </c>
@@ -4401,17 +4499,17 @@
         <v>16</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H18" s="95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="99"/>
     </row>
-    <row r="19" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>141</v>
       </c>
@@ -4422,12 +4520,12 @@
         <v>143</v>
       </c>
       <c r="H19" s="165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="165"/>
       <c r="J19" s="165"/>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
         <v>75</v>
       </c>
@@ -4436,28 +4534,34 @@
       </c>
       <c r="D20" s="22"/>
       <c r="H20" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I20" s="166" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="167" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="O20" s="175" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="170" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="170"/>
       <c r="D21" s="170"/>
       <c r="H21" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I21" s="166"/>
       <c r="J21" s="168"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
         <v>76</v>
       </c>
@@ -4468,12 +4572,15 @@
         <v>152</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I22" s="166"/>
       <c r="J22" s="168"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>84</v>
       </c>
@@ -4481,15 +4588,18 @@
         <v>16</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I23" s="166"/>
       <c r="J23" s="168"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -4503,12 +4613,15 @@
         <v>143</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I24" s="166"/>
       <c r="J24" s="169"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>77</v>
       </c>
@@ -4517,14 +4630,14 @@
       </c>
       <c r="D25" s="27"/>
       <c r="H25" s="95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="99"/>
     </row>
-    <row r="26" spans="1:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="22" t="s">
         <v>144</v>
@@ -4533,17 +4646,17 @@
         <v>16</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I26" s="94" t="s">
         <v>2</v>
       </c>
       <c r="J26" s="101"/>
     </row>
-    <row r="27" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="172" t="s">
         <v>85</v>
@@ -4551,14 +4664,14 @@
       <c r="C27" s="172"/>
       <c r="D27" s="172"/>
       <c r="H27" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I27" s="89" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="99"/>
     </row>
-    <row r="28" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="23" t="s">
         <v>69</v>
@@ -4568,14 +4681,14 @@
       </c>
       <c r="D28" s="27"/>
       <c r="H28" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I28" s="89" t="s">
         <v>2</v>
       </c>
       <c r="J28" s="99"/>
     </row>
-    <row r="29" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>108</v>
       </c>
@@ -4584,7 +4697,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
         <v>70</v>
       </c>
@@ -4593,7 +4706,7 @@
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
         <v>86</v>
       </c>
@@ -4601,10 +4714,10 @@
         <v>16</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="24" t="s">
         <v>93</v>
       </c>
@@ -4680,7 +4793,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4938,7 +5051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B62FF2-D363-46F5-AB94-D5D2B9D503BB}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -4968,7 +5081,7 @@
         <v>95</v>
       </c>
       <c r="D1" s="115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E1" s="115" t="s">
         <v>96</v>
@@ -4983,13 +5096,13 @@
         <v>98</v>
       </c>
       <c r="I1" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="115" t="s">
         <v>192</v>
-      </c>
-      <c r="J1" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="115" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5012,11 +5125,11 @@
         <v>99</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="103" t="s">
         <v>133</v>
@@ -5043,17 +5156,17 @@
         <v>100</v>
       </c>
       <c r="B4" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="104"/>
       <c r="H4" s="119" t="s">
@@ -5074,17 +5187,17 @@
         <v>101</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="103" t="s">
-        <v>178</v>
-      </c>
       <c r="F5" s="107" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="119" t="s">
@@ -5120,17 +5233,17 @@
         <v>102</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="121" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="121" t="s">
-        <v>184</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="119" t="s">
@@ -5151,17 +5264,17 @@
         <v>103</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="119" t="s">
@@ -5182,17 +5295,17 @@
         <v>122</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="104"/>
       <c r="D9" s="117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="104"/>
       <c r="H9" s="119" t="s">
@@ -5213,11 +5326,11 @@
         <v>123</v>
       </c>
       <c r="B10" s="121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="104"/>
       <c r="D10" s="117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="103" t="s">
         <v>150</v>
@@ -5241,7 +5354,7 @@
     </row>
     <row r="11" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="143" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="143"/>
       <c r="C11" s="143"/>
@@ -5259,17 +5372,17 @@
         <v>136</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E12" s="123" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F12" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="119" t="s">
@@ -5279,37 +5392,37 @@
         <v>115</v>
       </c>
       <c r="J12" s="119" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" s="103" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="149" t="s">
-        <v>347</v>
-      </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
+      <c r="A13" s="148" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="150"/>
     </row>
     <row r="14" spans="1:11" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="103" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="104"/>
       <c r="D14" s="107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E14" s="103" t="s">
         <v>134</v>
@@ -5318,7 +5431,7 @@
         <v>117</v>
       </c>
       <c r="G14" s="132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="119" t="s">
         <v>126</v>
@@ -5335,7 +5448,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="143"/>
       <c r="C15" s="143"/>
@@ -5350,32 +5463,32 @@
     </row>
     <row r="16" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="127"/>
       <c r="D16" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" s="128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F16" s="126" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H16" s="129" t="s">
         <v>126</v>
       </c>
       <c r="I16" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" s="129" t="s">
         <v>319</v>
-      </c>
-      <c r="J16" s="129" t="s">
-        <v>320</v>
       </c>
       <c r="K16" s="128" t="s">
         <v>127</v>
@@ -5390,16 +5503,16 @@
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F17" s="108" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H17" s="119" t="s">
         <v>126</v>
@@ -5415,33 +5528,33 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="149" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
+      <c r="A18" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
     </row>
     <row r="19" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="103" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="104"/>
       <c r="D19" s="107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" s="133" t="s">
         <v>121</v>
@@ -5462,23 +5575,23 @@
     </row>
     <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C20" s="104"/>
       <c r="D20" s="107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G20" s="134" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H20" s="119" t="s">
         <v>126</v>
@@ -5495,23 +5608,23 @@
     </row>
     <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F21" s="72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G21" s="134" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H21" s="119" t="s">
         <v>126</v>
@@ -5543,17 +5656,17 @@
     </row>
     <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="122" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F23" s="105" t="s">
         <v>131</v>
